--- a/data/pca/factorExposure/factorExposure_2011-05-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01314645134441055</v>
+        <v>-0.01537315382680148</v>
       </c>
       <c r="C2">
-        <v>-0.008558835511221568</v>
+        <v>0.001917433378639711</v>
       </c>
       <c r="D2">
-        <v>-0.0565085107828303</v>
+        <v>-0.005482027181052317</v>
       </c>
       <c r="E2">
-        <v>-0.008872733057870183</v>
+        <v>-0.03614024290439099</v>
       </c>
       <c r="F2">
-        <v>0.02035405483683629</v>
+        <v>0.003300171397785267</v>
       </c>
       <c r="G2">
-        <v>0.02641136947263462</v>
+        <v>-0.005518262292722688</v>
       </c>
       <c r="H2">
-        <v>-0.02735678050818618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03131327304525216</v>
+      </c>
+      <c r="I2">
+        <v>0.02468908114645759</v>
+      </c>
+      <c r="J2">
+        <v>0.0147974619242035</v>
+      </c>
+      <c r="K2">
+        <v>0.04253458834140289</v>
+      </c>
+      <c r="L2">
+        <v>0.0237305430600051</v>
+      </c>
+      <c r="M2">
+        <v>0.009045098826240735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08342843959828414</v>
+        <v>-0.108385815039938</v>
       </c>
       <c r="C4">
-        <v>0.05681388825433671</v>
+        <v>-0.07543883954946259</v>
       </c>
       <c r="D4">
-        <v>-0.03082385097794942</v>
+        <v>-0.01097249248619525</v>
       </c>
       <c r="E4">
-        <v>-0.03453767536662647</v>
+        <v>-0.03690829326634322</v>
       </c>
       <c r="F4">
-        <v>0.02685681239963304</v>
+        <v>-0.1629040045924693</v>
       </c>
       <c r="G4">
-        <v>0.01856717284955849</v>
+        <v>0.02289633449986285</v>
       </c>
       <c r="H4">
-        <v>0.03309407777038898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.02990724292302921</v>
+      </c>
+      <c r="I4">
+        <v>-0.03805265221417563</v>
+      </c>
+      <c r="J4">
+        <v>-0.005166511815828459</v>
+      </c>
+      <c r="K4">
+        <v>-0.08941155833248417</v>
+      </c>
+      <c r="L4">
+        <v>0.02132027107263517</v>
+      </c>
+      <c r="M4">
+        <v>-0.07374413766990753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1333699999157796</v>
+        <v>-0.1350469708199048</v>
       </c>
       <c r="C6">
-        <v>0.04043720967120398</v>
+        <v>-0.05374593042573055</v>
       </c>
       <c r="D6">
-        <v>-0.04749164838375065</v>
+        <v>-0.004358953603979723</v>
       </c>
       <c r="E6">
-        <v>-0.06510762319587211</v>
+        <v>0.001199125081081889</v>
       </c>
       <c r="F6">
-        <v>-0.1225286779514383</v>
+        <v>0.01522191951629873</v>
       </c>
       <c r="G6">
-        <v>-0.1253836531194946</v>
+        <v>0.1044348036564974</v>
       </c>
       <c r="H6">
-        <v>0.2499867999207939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.003172293661186649</v>
+      </c>
+      <c r="I6">
+        <v>-0.3086757842104467</v>
+      </c>
+      <c r="J6">
+        <v>-0.3299589396054359</v>
+      </c>
+      <c r="K6">
+        <v>-0.03224366993323486</v>
+      </c>
+      <c r="L6">
+        <v>0.143257468263251</v>
+      </c>
+      <c r="M6">
+        <v>0.02352917919485273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07442771774578702</v>
+        <v>-0.06874771367393356</v>
       </c>
       <c r="C7">
-        <v>0.04708843650284995</v>
+        <v>-0.06217033264364657</v>
       </c>
       <c r="D7">
-        <v>-0.04323933745121011</v>
+        <v>-0.00717778798799202</v>
       </c>
       <c r="E7">
-        <v>-0.04736395717308625</v>
+        <v>-0.05019150717991107</v>
       </c>
       <c r="F7">
-        <v>-0.0413459711303344</v>
+        <v>-0.0377909031157484</v>
       </c>
       <c r="G7">
-        <v>0.0005887121536137773</v>
+        <v>-0.001862056080925532</v>
       </c>
       <c r="H7">
-        <v>-0.05386953346811323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02415832793822294</v>
+      </c>
+      <c r="I7">
+        <v>0.01410464415315625</v>
+      </c>
+      <c r="J7">
+        <v>0.07350095563449341</v>
+      </c>
+      <c r="K7">
+        <v>-0.0985631721668868</v>
+      </c>
+      <c r="L7">
+        <v>0.006315073324001383</v>
+      </c>
+      <c r="M7">
+        <v>0.04261715309908619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03932927507671749</v>
+        <v>-0.04259891612924672</v>
       </c>
       <c r="C8">
-        <v>0.02522138979434544</v>
+        <v>-0.01733036022994969</v>
       </c>
       <c r="D8">
-        <v>-0.05590381477865128</v>
+        <v>-0.006135499193925456</v>
       </c>
       <c r="E8">
-        <v>-0.05109141805573895</v>
+        <v>-0.02087330389788701</v>
       </c>
       <c r="F8">
-        <v>0.02425180745564811</v>
+        <v>-0.1351871268492223</v>
       </c>
       <c r="G8">
-        <v>0.05540945528300469</v>
+        <v>-0.00896354840115612</v>
       </c>
       <c r="H8">
-        <v>-0.01561660459340743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.03692891840486384</v>
+      </c>
+      <c r="I8">
+        <v>-0.06551100464563844</v>
+      </c>
+      <c r="J8">
+        <v>0.01059657575209957</v>
+      </c>
+      <c r="K8">
+        <v>-0.06726553366964684</v>
+      </c>
+      <c r="L8">
+        <v>0.07410579008365657</v>
+      </c>
+      <c r="M8">
+        <v>-0.07933974160677403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08042288117224149</v>
+        <v>-0.08286855669228749</v>
       </c>
       <c r="C9">
-        <v>0.05919107304563276</v>
+        <v>-0.06443552302902826</v>
       </c>
       <c r="D9">
-        <v>-0.0359289322274485</v>
+        <v>0.008452441096127666</v>
       </c>
       <c r="E9">
-        <v>-0.02861454213386922</v>
+        <v>-0.02940789484704784</v>
       </c>
       <c r="F9">
-        <v>0.01935887732947969</v>
+        <v>-0.1433676066465346</v>
       </c>
       <c r="G9">
-        <v>0.01938570683090717</v>
+        <v>0.02447272129906295</v>
       </c>
       <c r="H9">
-        <v>-0.0003803831088295665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.002709849573259623</v>
+      </c>
+      <c r="I9">
+        <v>-0.01208313716034794</v>
+      </c>
+      <c r="J9">
+        <v>0.008276932527191187</v>
+      </c>
+      <c r="K9">
+        <v>-0.05486945272494671</v>
+      </c>
+      <c r="L9">
+        <v>0.03110156875474623</v>
+      </c>
+      <c r="M9">
+        <v>-0.004948258428190229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.04860147803674492</v>
+        <v>-0.1112801045303511</v>
       </c>
       <c r="C10">
-        <v>-0.1451251066951903</v>
+        <v>0.1634389554942673</v>
       </c>
       <c r="D10">
-        <v>-0.07695922657999693</v>
+        <v>-0.01028941099143745</v>
       </c>
       <c r="E10">
-        <v>-0.03591803560470499</v>
+        <v>-0.03096755089310087</v>
       </c>
       <c r="F10">
-        <v>-0.03559071374046283</v>
+        <v>0.01423997304347459</v>
       </c>
       <c r="G10">
-        <v>-0.004253168207431869</v>
+        <v>0.02385920112930211</v>
       </c>
       <c r="H10">
-        <v>0.01979335636181587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.03073782630054256</v>
+      </c>
+      <c r="I10">
+        <v>0.01838568267115676</v>
+      </c>
+      <c r="J10">
+        <v>-0.008361400638447005</v>
+      </c>
+      <c r="K10">
+        <v>-0.0002927259297529962</v>
+      </c>
+      <c r="L10">
+        <v>-0.04024769730760619</v>
+      </c>
+      <c r="M10">
+        <v>0.1040114085711825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07669760900802283</v>
+        <v>-0.06875040381490394</v>
       </c>
       <c r="C11">
-        <v>0.07597127806946101</v>
+        <v>-0.07112047916919222</v>
       </c>
       <c r="D11">
-        <v>-0.01642777275778672</v>
+        <v>0.03123389559933595</v>
       </c>
       <c r="E11">
-        <v>0.003190457352564476</v>
+        <v>-0.01078527862815841</v>
       </c>
       <c r="F11">
-        <v>0.02224577863113256</v>
+        <v>-0.1189176996097048</v>
       </c>
       <c r="G11">
-        <v>0.1006499741640891</v>
+        <v>0.005422786863556681</v>
       </c>
       <c r="H11">
-        <v>-0.05959758077578564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.05103945608867088</v>
+      </c>
+      <c r="I11">
+        <v>0.05950756863253488</v>
+      </c>
+      <c r="J11">
+        <v>0.05958553373186506</v>
+      </c>
+      <c r="K11">
+        <v>0.05139789253081779</v>
+      </c>
+      <c r="L11">
+        <v>0.03697036017170584</v>
+      </c>
+      <c r="M11">
+        <v>0.1123103308931322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07267134216892839</v>
+        <v>-0.06828495903242973</v>
       </c>
       <c r="C12">
-        <v>0.04816407697695534</v>
+        <v>-0.06273494841907067</v>
       </c>
       <c r="D12">
-        <v>-0.002697067480988213</v>
+        <v>0.02892723330092434</v>
       </c>
       <c r="E12">
-        <v>-0.03963861883369581</v>
+        <v>-0.003931261357447141</v>
       </c>
       <c r="F12">
-        <v>0.01001839379763773</v>
+        <v>-0.1296701182703549</v>
       </c>
       <c r="G12">
-        <v>0.08069761941528641</v>
+        <v>-0.004055321337799743</v>
       </c>
       <c r="H12">
-        <v>-0.06620496550280768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.04122478129763845</v>
+      </c>
+      <c r="I12">
+        <v>0.02507355739536164</v>
+      </c>
+      <c r="J12">
+        <v>0.06649275182865548</v>
+      </c>
+      <c r="K12">
+        <v>0.04026448387568167</v>
+      </c>
+      <c r="L12">
+        <v>0.05462532340912727</v>
+      </c>
+      <c r="M12">
+        <v>0.1248975476323492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05192845227156624</v>
+        <v>-0.04437088798383507</v>
       </c>
       <c r="C13">
-        <v>0.002721359952584559</v>
+        <v>-0.03193216774854527</v>
       </c>
       <c r="D13">
-        <v>-0.0008040362993825079</v>
+        <v>-0.01907636340034508</v>
       </c>
       <c r="E13">
-        <v>-0.01752968611667217</v>
+        <v>-0.01701919990710868</v>
       </c>
       <c r="F13">
-        <v>0.04749839532770804</v>
+        <v>-0.04839426418650619</v>
       </c>
       <c r="G13">
-        <v>0.005033220224217481</v>
+        <v>-0.001461314343889241</v>
       </c>
       <c r="H13">
-        <v>-0.08288203053915252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.0214500111123662</v>
+      </c>
+      <c r="I13">
+        <v>-0.01163426853913137</v>
+      </c>
+      <c r="J13">
+        <v>0.02161147896524239</v>
+      </c>
+      <c r="K13">
+        <v>-0.04443571173816314</v>
+      </c>
+      <c r="L13">
+        <v>-0.02222931798486487</v>
+      </c>
+      <c r="M13">
+        <v>-0.01776196377271689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05341845947057923</v>
+        <v>-0.03885118065769391</v>
       </c>
       <c r="C14">
-        <v>0.02248951426516491</v>
+        <v>-0.02779738018873572</v>
       </c>
       <c r="D14">
-        <v>-0.01712002071184525</v>
+        <v>0.0158941964331772</v>
       </c>
       <c r="E14">
-        <v>-0.02841529298081912</v>
+        <v>-0.01164769532778255</v>
       </c>
       <c r="F14">
-        <v>-0.01328642176703973</v>
+        <v>-0.07112849378725616</v>
       </c>
       <c r="G14">
-        <v>-0.01625475344981442</v>
+        <v>-0.007416797625398774</v>
       </c>
       <c r="H14">
-        <v>0.05251382714493787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.02637736531769242</v>
+      </c>
+      <c r="I14">
+        <v>0.001371496435153779</v>
+      </c>
+      <c r="J14">
+        <v>-0.02366510103517227</v>
+      </c>
+      <c r="K14">
+        <v>-0.09833694951518943</v>
+      </c>
+      <c r="L14">
+        <v>0.01485570625222382</v>
+      </c>
+      <c r="M14">
+        <v>-0.01327314502690837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03664414275196502</v>
+        <v>-0.02447691406505107</v>
       </c>
       <c r="C15">
-        <v>-0.008611235791971192</v>
+        <v>-0.01075552928223621</v>
       </c>
       <c r="D15">
-        <v>0.0005736689019301369</v>
+        <v>-0.05353460665315832</v>
       </c>
       <c r="E15">
-        <v>-0.02175081443783042</v>
+        <v>-0.009097611724090189</v>
       </c>
       <c r="F15">
-        <v>0.01403589612806665</v>
+        <v>-0.0100535542553348</v>
       </c>
       <c r="G15">
-        <v>-0.01030579017973115</v>
+        <v>0.03550003980603476</v>
       </c>
       <c r="H15">
-        <v>0.03917643578734285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01055899726166068</v>
+      </c>
+      <c r="I15">
+        <v>-0.004682037386133618</v>
+      </c>
+      <c r="J15">
+        <v>-0.02381912630398007</v>
+      </c>
+      <c r="K15">
+        <v>-0.08012373873172175</v>
+      </c>
+      <c r="L15">
+        <v>-0.01220452155571327</v>
+      </c>
+      <c r="M15">
+        <v>0.0007565816019090459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06575796854120099</v>
+        <v>-0.07214251889041483</v>
       </c>
       <c r="C16">
-        <v>0.07441861214405233</v>
+        <v>-0.07598296205050338</v>
       </c>
       <c r="D16">
-        <v>-0.01753233568915862</v>
+        <v>0.02138735163235841</v>
       </c>
       <c r="E16">
-        <v>-0.02543750978987221</v>
+        <v>-0.01439491096339364</v>
       </c>
       <c r="F16">
-        <v>0.03124197136015568</v>
+        <v>-0.1194697605119214</v>
       </c>
       <c r="G16">
-        <v>0.07320148231229918</v>
+        <v>-0.006154739676843608</v>
       </c>
       <c r="H16">
-        <v>-0.09562504034638908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03097918260570137</v>
+      </c>
+      <c r="I16">
+        <v>0.04208655405326635</v>
+      </c>
+      <c r="J16">
+        <v>0.07297834542507078</v>
+      </c>
+      <c r="K16">
+        <v>0.02895258622678297</v>
+      </c>
+      <c r="L16">
+        <v>0.05776760853066627</v>
+      </c>
+      <c r="M16">
+        <v>0.1147122712188442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04709468932282449</v>
+        <v>-0.04311339027900161</v>
       </c>
       <c r="C20">
-        <v>0.04211370836649814</v>
+        <v>-0.03101758268597293</v>
       </c>
       <c r="D20">
-        <v>-0.01078916704204666</v>
+        <v>-0.01874724811992819</v>
       </c>
       <c r="E20">
-        <v>-0.01135014771241031</v>
+        <v>-0.02425036866703534</v>
       </c>
       <c r="F20">
-        <v>0.01615179534999299</v>
+        <v>-0.07204033727709958</v>
       </c>
       <c r="G20">
-        <v>0.01939785463529983</v>
+        <v>-0.02091620865579601</v>
       </c>
       <c r="H20">
-        <v>-0.04652943747165145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01151653464608287</v>
+      </c>
+      <c r="I20">
+        <v>-0.02346005598847149</v>
+      </c>
+      <c r="J20">
+        <v>0.01734179442703202</v>
+      </c>
+      <c r="K20">
+        <v>-0.06126825817177305</v>
+      </c>
+      <c r="L20">
+        <v>0.02898081127136821</v>
+      </c>
+      <c r="M20">
+        <v>0.001618073007756933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02715563648709498</v>
+        <v>-0.02314206624673558</v>
       </c>
       <c r="C21">
-        <v>0.0344827620037029</v>
+        <v>-0.02512762310765558</v>
       </c>
       <c r="D21">
-        <v>0.003650629180183777</v>
+        <v>-0.004551828352751773</v>
       </c>
       <c r="E21">
-        <v>-0.06041020425404026</v>
+        <v>-0.01790711821744347</v>
       </c>
       <c r="F21">
-        <v>-0.07706587108482774</v>
+        <v>-0.06993786860716394</v>
       </c>
       <c r="G21">
-        <v>-0.01834916425230305</v>
+        <v>0.0556588089642186</v>
       </c>
       <c r="H21">
-        <v>0.09433516840201953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1185040095371325</v>
+      </c>
+      <c r="I21">
+        <v>-0.02420127385655542</v>
+      </c>
+      <c r="J21">
+        <v>0.01931783639744107</v>
+      </c>
+      <c r="K21">
+        <v>-0.1317084493074862</v>
+      </c>
+      <c r="L21">
+        <v>-0.05462455115964614</v>
+      </c>
+      <c r="M21">
+        <v>0.04827138218199274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01727825179393321</v>
+        <v>-0.04694417507540504</v>
       </c>
       <c r="C22">
-        <v>0.03578151239562204</v>
+        <v>-0.02459800535327265</v>
       </c>
       <c r="D22">
-        <v>0.05866394160246712</v>
+        <v>-0.6475443439220273</v>
       </c>
       <c r="E22">
-        <v>-0.5184176046108681</v>
+        <v>-0.1048500144939917</v>
       </c>
       <c r="F22">
-        <v>0.2450825253685191</v>
+        <v>0.05370387492855165</v>
       </c>
       <c r="G22">
-        <v>-0.113241681728087</v>
+        <v>-0.145138878179903</v>
       </c>
       <c r="H22">
-        <v>0.1038324425400163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.09178449046327437</v>
+      </c>
+      <c r="I22">
+        <v>0.004023590356563693</v>
+      </c>
+      <c r="J22">
+        <v>-0.0008747755547284267</v>
+      </c>
+      <c r="K22">
+        <v>0.05010001541541691</v>
+      </c>
+      <c r="L22">
+        <v>-0.01103751032866773</v>
+      </c>
+      <c r="M22">
+        <v>-0.002307206139279694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01687013490424929</v>
+        <v>-0.04738384681766365</v>
       </c>
       <c r="C23">
-        <v>0.03536453581523257</v>
+        <v>-0.02535271707505928</v>
       </c>
       <c r="D23">
-        <v>0.05785697516360161</v>
+        <v>-0.6493241577775106</v>
       </c>
       <c r="E23">
-        <v>-0.5177107672275635</v>
+        <v>-0.1050808095679461</v>
       </c>
       <c r="F23">
-        <v>0.2443533278910642</v>
+        <v>0.05094389019235269</v>
       </c>
       <c r="G23">
-        <v>-0.1144119123346315</v>
+        <v>-0.1457086568811578</v>
       </c>
       <c r="H23">
-        <v>0.103845995074112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.08892893385673918</v>
+      </c>
+      <c r="I23">
+        <v>0.001300503166030345</v>
+      </c>
+      <c r="J23">
+        <v>-0.003129759563858326</v>
+      </c>
+      <c r="K23">
+        <v>0.05208578422522503</v>
+      </c>
+      <c r="L23">
+        <v>-0.009018397775973267</v>
+      </c>
+      <c r="M23">
+        <v>-0.001019823064600456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07791646626997405</v>
+        <v>-0.07523752758366807</v>
       </c>
       <c r="C24">
-        <v>0.06375061676581512</v>
+        <v>-0.07255060859546178</v>
       </c>
       <c r="D24">
-        <v>-0.01957166253050888</v>
+        <v>0.01642830796171383</v>
       </c>
       <c r="E24">
-        <v>-0.03350418305701806</v>
+        <v>-0.02064487099132717</v>
       </c>
       <c r="F24">
-        <v>0.01309920496556613</v>
+        <v>-0.1195497561288116</v>
       </c>
       <c r="G24">
-        <v>0.07464306874612947</v>
+        <v>0.004376268332551319</v>
       </c>
       <c r="H24">
-        <v>-0.05980803672690203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.04137966744194117</v>
+      </c>
+      <c r="I24">
+        <v>0.04516696346065095</v>
+      </c>
+      <c r="J24">
+        <v>0.05421513722463153</v>
+      </c>
+      <c r="K24">
+        <v>0.05413639774722848</v>
+      </c>
+      <c r="L24">
+        <v>0.04891379201306768</v>
+      </c>
+      <c r="M24">
+        <v>0.09763680682071714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.07067486397699485</v>
+        <v>-0.07432759959901156</v>
       </c>
       <c r="C25">
-        <v>0.03562766130548316</v>
+        <v>-0.05090279674589016</v>
       </c>
       <c r="D25">
-        <v>-0.02140090049398265</v>
+        <v>0.03426769601771432</v>
       </c>
       <c r="E25">
-        <v>-0.02840061764056542</v>
+        <v>-0.00813730390100581</v>
       </c>
       <c r="F25">
-        <v>0.01396849853762995</v>
+        <v>-0.1202941243722806</v>
       </c>
       <c r="G25">
-        <v>0.07430966759795903</v>
+        <v>-0.004925709748482564</v>
       </c>
       <c r="H25">
-        <v>-0.0476603992181491</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.02912817117203432</v>
+      </c>
+      <c r="I25">
+        <v>0.04487032727457353</v>
+      </c>
+      <c r="J25">
+        <v>0.05403794264788618</v>
+      </c>
+      <c r="K25">
+        <v>0.05231799966037822</v>
+      </c>
+      <c r="L25">
+        <v>0.06752552884532485</v>
+      </c>
+      <c r="M25">
+        <v>0.1048091781505932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.05007289458796798</v>
+        <v>-0.04233114911443255</v>
       </c>
       <c r="C26">
-        <v>0.03958525441075109</v>
+        <v>-0.01586385438124815</v>
       </c>
       <c r="D26">
-        <v>-0.03478188486956765</v>
+        <v>-0.007907694014435675</v>
       </c>
       <c r="E26">
-        <v>-0.002377993373362608</v>
+        <v>-0.008595596356780614</v>
       </c>
       <c r="F26">
-        <v>0.02116429707978939</v>
+        <v>-0.05110801926032005</v>
       </c>
       <c r="G26">
-        <v>-0.01300452927338506</v>
+        <v>-0.02047346728431282</v>
       </c>
       <c r="H26">
-        <v>-0.01414748429792223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01511243801686441</v>
+      </c>
+      <c r="I26">
+        <v>0.00566356240223275</v>
+      </c>
+      <c r="J26">
+        <v>-0.01608300158089519</v>
+      </c>
+      <c r="K26">
+        <v>-0.1227946585768558</v>
+      </c>
+      <c r="L26">
+        <v>-0.03456122118233024</v>
+      </c>
+      <c r="M26">
+        <v>0.03574368504577911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09455376753851419</v>
+        <v>-0.1442399036576136</v>
       </c>
       <c r="C28">
-        <v>-0.2914677552787686</v>
+        <v>0.2865727556073919</v>
       </c>
       <c r="D28">
-        <v>-0.06871431033180804</v>
+        <v>0.008500232161113468</v>
       </c>
       <c r="E28">
-        <v>-0.008720883828846946</v>
+        <v>-0.01569255604134245</v>
       </c>
       <c r="F28">
-        <v>-0.03738977292661503</v>
+        <v>-0.004618772891175528</v>
       </c>
       <c r="G28">
-        <v>0.008114980383927505</v>
+        <v>0.004302460917729849</v>
       </c>
       <c r="H28">
-        <v>-0.009825564611237488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.0151223343115755</v>
+      </c>
+      <c r="I28">
+        <v>-0.02229789704941132</v>
+      </c>
+      <c r="J28">
+        <v>0.02216133285681741</v>
+      </c>
+      <c r="K28">
+        <v>-0.008763085819515406</v>
+      </c>
+      <c r="L28">
+        <v>-0.01440278488215645</v>
+      </c>
+      <c r="M28">
+        <v>-0.01346630119457406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05398527319092587</v>
+        <v>-0.03920057865799123</v>
       </c>
       <c r="C29">
-        <v>0.01683979432564888</v>
+        <v>-0.02626658087855919</v>
       </c>
       <c r="D29">
-        <v>-0.008303041853450398</v>
+        <v>0.008199736376533847</v>
       </c>
       <c r="E29">
-        <v>-0.03126550480949955</v>
+        <v>-0.01301370310654856</v>
       </c>
       <c r="F29">
-        <v>0.01845068357218138</v>
+        <v>-0.07317933603846184</v>
       </c>
       <c r="G29">
-        <v>-0.009800820910173378</v>
+        <v>-0.02360743818086457</v>
       </c>
       <c r="H29">
-        <v>0.0376696386423418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.004749614180767467</v>
+      </c>
+      <c r="I29">
+        <v>-0.01076162389701934</v>
+      </c>
+      <c r="J29">
+        <v>-0.01668549810216154</v>
+      </c>
+      <c r="K29">
+        <v>-0.09565117468340475</v>
+      </c>
+      <c r="L29">
+        <v>0.007595382700490935</v>
+      </c>
+      <c r="M29">
+        <v>0.007519026893363428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1256883768531556</v>
+        <v>-0.1061478951767222</v>
       </c>
       <c r="C30">
-        <v>0.04417081017401725</v>
+        <v>-0.06339229150286402</v>
       </c>
       <c r="D30">
-        <v>-0.0525620960202863</v>
+        <v>0.001929463181927256</v>
       </c>
       <c r="E30">
-        <v>-0.107925197230526</v>
+        <v>-0.005709593143158945</v>
       </c>
       <c r="F30">
-        <v>-0.0355703209759386</v>
+        <v>-0.2283083723093271</v>
       </c>
       <c r="G30">
-        <v>0.1630276908896019</v>
+        <v>-0.1505681791110117</v>
       </c>
       <c r="H30">
-        <v>0.03599996496048367</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1855657697351388</v>
+      </c>
+      <c r="I30">
+        <v>-0.1650263991198481</v>
+      </c>
+      <c r="J30">
+        <v>0.04603504779162106</v>
+      </c>
+      <c r="K30">
+        <v>-0.007247970643939588</v>
+      </c>
+      <c r="L30">
+        <v>0.04596513005947685</v>
+      </c>
+      <c r="M30">
+        <v>-0.5606751093141991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.050434583132187</v>
+        <v>-0.03761866321307708</v>
       </c>
       <c r="C31">
-        <v>0.02086149675160565</v>
+        <v>-0.0493827522127314</v>
       </c>
       <c r="D31">
-        <v>0.01112500822899254</v>
+        <v>-0.002768697882773233</v>
       </c>
       <c r="E31">
-        <v>-0.001132592900652707</v>
+        <v>0.003008370041093425</v>
       </c>
       <c r="F31">
-        <v>0.02283608986394325</v>
+        <v>-0.02793260003903907</v>
       </c>
       <c r="G31">
-        <v>-0.03482356348864637</v>
+        <v>-0.01113589986278936</v>
       </c>
       <c r="H31">
-        <v>-0.02572200727932707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04492994447779178</v>
+      </c>
+      <c r="I31">
+        <v>0.007630377381351212</v>
+      </c>
+      <c r="J31">
+        <v>-0.008450816889289576</v>
+      </c>
+      <c r="K31">
+        <v>-0.02713160380297013</v>
+      </c>
+      <c r="L31">
+        <v>0.0311145251119191</v>
+      </c>
+      <c r="M31">
+        <v>0.003040036564019956</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01996034234491226</v>
+        <v>-0.04333440275473904</v>
       </c>
       <c r="C32">
-        <v>-0.01651134215496649</v>
+        <v>0.001912357543841909</v>
       </c>
       <c r="D32">
-        <v>-0.0004631370379066733</v>
+        <v>0.01377571109113469</v>
       </c>
       <c r="E32">
-        <v>-0.07386225406010888</v>
+        <v>0.01794457452762136</v>
       </c>
       <c r="F32">
-        <v>0.1053915313319071</v>
+        <v>-0.0848473254394312</v>
       </c>
       <c r="G32">
-        <v>0.05371890822662537</v>
+        <v>0.01822440715499738</v>
       </c>
       <c r="H32">
-        <v>-0.04467934697898551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.02792071729809942</v>
+      </c>
+      <c r="I32">
+        <v>0.04888226508813524</v>
+      </c>
+      <c r="J32">
+        <v>0.03877201682768301</v>
+      </c>
+      <c r="K32">
+        <v>-0.05514715256964092</v>
+      </c>
+      <c r="L32">
+        <v>0.007989514227502726</v>
+      </c>
+      <c r="M32">
+        <v>-0.1328843682321549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1176004992832262</v>
+        <v>-0.09567981885354175</v>
       </c>
       <c r="C33">
-        <v>0.04133694717768634</v>
+        <v>-0.06350608248110073</v>
       </c>
       <c r="D33">
-        <v>-0.00732518801327136</v>
+        <v>0.02146444555997401</v>
       </c>
       <c r="E33">
-        <v>-0.0151739736435317</v>
+        <v>1.553924053191424e-06</v>
       </c>
       <c r="F33">
-        <v>0.06168169717621498</v>
+        <v>-0.08133342104767344</v>
       </c>
       <c r="G33">
-        <v>0.02136008647280826</v>
+        <v>-0.01832437894896588</v>
       </c>
       <c r="H33">
-        <v>0.0002337147657435699</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.0004711322720519481</v>
+      </c>
+      <c r="I33">
+        <v>0.01800232729351571</v>
+      </c>
+      <c r="J33">
+        <v>-0.03356156684408019</v>
+      </c>
+      <c r="K33">
+        <v>-0.02613416648553473</v>
+      </c>
+      <c r="L33">
+        <v>-0.0002438215797976901</v>
+      </c>
+      <c r="M33">
+        <v>-0.005789690729758202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05785445217486059</v>
+        <v>-0.06252723284123231</v>
       </c>
       <c r="C34">
-        <v>0.06690907499147634</v>
+        <v>-0.06405112941140859</v>
       </c>
       <c r="D34">
-        <v>-0.007096132847931846</v>
+        <v>0.02603391839245647</v>
       </c>
       <c r="E34">
-        <v>-0.01358060964760277</v>
+        <v>-0.008331164526793054</v>
       </c>
       <c r="F34">
-        <v>0.01655440593798953</v>
+        <v>-0.1109915443717295</v>
       </c>
       <c r="G34">
-        <v>0.05207068349143996</v>
+        <v>0.0007339987263846819</v>
       </c>
       <c r="H34">
-        <v>-0.04070065877194511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.02224933292740872</v>
+      </c>
+      <c r="I34">
+        <v>0.03928337163117975</v>
+      </c>
+      <c r="J34">
+        <v>0.06822858041220756</v>
+      </c>
+      <c r="K34">
+        <v>-0.001733057099386533</v>
+      </c>
+      <c r="L34">
+        <v>0.04684112897978546</v>
+      </c>
+      <c r="M34">
+        <v>0.1121421777286133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.0441528766041091</v>
+        <v>-0.02375342286659112</v>
       </c>
       <c r="C35">
-        <v>0.03305120946160396</v>
+        <v>-0.02490791063819329</v>
       </c>
       <c r="D35">
-        <v>0.008537588250742335</v>
+        <v>0.002316525566614843</v>
       </c>
       <c r="E35">
-        <v>-0.01587034296484914</v>
+        <v>0.006850950503010045</v>
       </c>
       <c r="F35">
-        <v>-0.01229027475800102</v>
+        <v>-0.04052783808789222</v>
       </c>
       <c r="G35">
-        <v>0.007114731769591477</v>
+        <v>-0.01826215295453351</v>
       </c>
       <c r="H35">
-        <v>-0.03865130666969254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01860870179776416</v>
+      </c>
+      <c r="I35">
+        <v>0.003092064927186493</v>
+      </c>
+      <c r="J35">
+        <v>0.05067119694167813</v>
+      </c>
+      <c r="K35">
+        <v>-0.06512949188938692</v>
+      </c>
+      <c r="L35">
+        <v>0.02408073382522157</v>
+      </c>
+      <c r="M35">
+        <v>0.0009865885871106967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03241316146459771</v>
+        <v>-0.02682976231958445</v>
       </c>
       <c r="C36">
-        <v>0.0164797704897806</v>
+        <v>-0.01563405567922322</v>
       </c>
       <c r="D36">
-        <v>-0.02343853707930554</v>
+        <v>-0.01016462862207907</v>
       </c>
       <c r="E36">
-        <v>-0.02929779770610172</v>
+        <v>-0.01546791717694654</v>
       </c>
       <c r="F36">
-        <v>0.0239367144784395</v>
+        <v>-0.06703677293788086</v>
       </c>
       <c r="G36">
-        <v>0.0102667573410946</v>
+        <v>-0.01062109089664632</v>
       </c>
       <c r="H36">
-        <v>-0.01956710181647297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.01003165064588932</v>
+      </c>
+      <c r="I36">
+        <v>-0.01036251210169341</v>
+      </c>
+      <c r="J36">
+        <v>-0.0318720471663696</v>
+      </c>
+      <c r="K36">
+        <v>-0.03969022975088272</v>
+      </c>
+      <c r="L36">
+        <v>0.0130528291553928</v>
+      </c>
+      <c r="M36">
+        <v>0.04818608247868082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.05107513340548468</v>
+        <v>-0.02794804160448327</v>
       </c>
       <c r="C38">
-        <v>0.04020213738324559</v>
+        <v>-0.04630934247227475</v>
       </c>
       <c r="D38">
-        <v>-0.004278511260345053</v>
+        <v>-0.01850806200337272</v>
       </c>
       <c r="E38">
-        <v>-0.02750451446691156</v>
+        <v>-0.01867371822299651</v>
       </c>
       <c r="F38">
-        <v>0.04365228280819238</v>
+        <v>0.0473318408392147</v>
       </c>
       <c r="G38">
-        <v>0.02744942414404293</v>
+        <v>-0.04867577867541175</v>
       </c>
       <c r="H38">
-        <v>0.01476288159687889</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.003944948357125775</v>
+      </c>
+      <c r="I38">
+        <v>0.01057033465945634</v>
+      </c>
+      <c r="J38">
+        <v>0.008553892081025805</v>
+      </c>
+      <c r="K38">
+        <v>-0.05718295163947139</v>
+      </c>
+      <c r="L38">
+        <v>-0.1126067120894062</v>
+      </c>
+      <c r="M38">
+        <v>-0.0821190554116339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09666698433451157</v>
+        <v>-0.1044597639629694</v>
       </c>
       <c r="C39">
-        <v>0.07218680108920626</v>
+        <v>-0.09185245731478359</v>
       </c>
       <c r="D39">
-        <v>0.003124098555249047</v>
+        <v>0.08710478429381106</v>
       </c>
       <c r="E39">
-        <v>-0.0200312988316062</v>
+        <v>0.02694541211266369</v>
       </c>
       <c r="F39">
-        <v>-0.002670767957338957</v>
+        <v>-0.161893024262391</v>
       </c>
       <c r="G39">
-        <v>0.1200088273918734</v>
+        <v>-0.1025051144239857</v>
       </c>
       <c r="H39">
-        <v>-0.1346437209349958</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.06603809028417805</v>
+      </c>
+      <c r="I39">
+        <v>0.01834137836187563</v>
+      </c>
+      <c r="J39">
+        <v>0.1675034243106464</v>
+      </c>
+      <c r="K39">
+        <v>0.1159254069060825</v>
+      </c>
+      <c r="L39">
+        <v>0.103341308990128</v>
+      </c>
+      <c r="M39">
+        <v>-0.003471063622328127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04844706815618178</v>
+        <v>-0.03272349417514422</v>
       </c>
       <c r="C40">
-        <v>0.02955689966390617</v>
+        <v>-0.05880672564960763</v>
       </c>
       <c r="D40">
-        <v>0.04324208765252917</v>
+        <v>-0.04121682460904936</v>
       </c>
       <c r="E40">
-        <v>-0.1158327753573232</v>
+        <v>-0.01515312220221719</v>
       </c>
       <c r="F40">
-        <v>0.05699349079669465</v>
+        <v>-0.1103801669471578</v>
       </c>
       <c r="G40">
-        <v>0.1417690190010747</v>
+        <v>0.02931190651627014</v>
       </c>
       <c r="H40">
-        <v>-0.1455645794863312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08518299458856719</v>
+      </c>
+      <c r="I40">
+        <v>0.01424240669725436</v>
+      </c>
+      <c r="J40">
+        <v>-0.0009168038287817281</v>
+      </c>
+      <c r="K40">
+        <v>-0.05341965440187837</v>
+      </c>
+      <c r="L40">
+        <v>-0.1201686657632165</v>
+      </c>
+      <c r="M40">
+        <v>-0.07815385520497956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04479630465456196</v>
+        <v>-0.0396272766305989</v>
       </c>
       <c r="C41">
-        <v>0.04100000870554833</v>
+        <v>-0.03807468740851645</v>
       </c>
       <c r="D41">
-        <v>-0.0002198305606621437</v>
+        <v>0.01629834383419267</v>
       </c>
       <c r="E41">
-        <v>0.007714431930394903</v>
+        <v>0.003176751715758069</v>
       </c>
       <c r="F41">
-        <v>0.02010145899252779</v>
+        <v>-0.02625724901177634</v>
       </c>
       <c r="G41">
-        <v>0.02354911325912682</v>
+        <v>-0.02543616750158609</v>
       </c>
       <c r="H41">
-        <v>-0.04279355250195523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.003117635425047455</v>
+      </c>
+      <c r="I41">
+        <v>0.0101584365244264</v>
+      </c>
+      <c r="J41">
+        <v>0.03195593078268329</v>
+      </c>
+      <c r="K41">
+        <v>-0.04810138097300339</v>
+      </c>
+      <c r="L41">
+        <v>-0.01204142713848818</v>
+      </c>
+      <c r="M41">
+        <v>0.00932932142683719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06029404062855986</v>
+        <v>-0.05207091474074486</v>
       </c>
       <c r="C43">
-        <v>0.03174974283120294</v>
+        <v>-0.04390313993044574</v>
       </c>
       <c r="D43">
-        <v>-0.02101562872802097</v>
+        <v>-0.01135074265925213</v>
       </c>
       <c r="E43">
-        <v>-0.02656622502783684</v>
+        <v>-0.01207651845812837</v>
       </c>
       <c r="F43">
-        <v>0.01893598647538366</v>
+        <v>-0.01711935862028394</v>
       </c>
       <c r="G43">
-        <v>0.00418621101780215</v>
+        <v>-0.05250136353397458</v>
       </c>
       <c r="H43">
-        <v>-0.006632303657814268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.01408251907263503</v>
+      </c>
+      <c r="I43">
+        <v>-0.01503916014563911</v>
+      </c>
+      <c r="J43">
+        <v>0.04013136895846806</v>
+      </c>
+      <c r="K43">
+        <v>-0.02964701274539187</v>
+      </c>
+      <c r="L43">
+        <v>0.00801008277628055</v>
+      </c>
+      <c r="M43">
+        <v>0.02804563346866051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05280261394045589</v>
+        <v>-0.08485507847890474</v>
       </c>
       <c r="C44">
-        <v>0.01846805545540342</v>
+        <v>-0.06103475383829057</v>
       </c>
       <c r="D44">
-        <v>-0.08123216968747893</v>
+        <v>-0.06997754361059504</v>
       </c>
       <c r="E44">
-        <v>-0.06862188902900349</v>
+        <v>-0.08389882030157239</v>
       </c>
       <c r="F44">
-        <v>0.01874656386754647</v>
+        <v>-0.174853720616043</v>
       </c>
       <c r="G44">
-        <v>0.1149071713065607</v>
+        <v>-0.01298289663632606</v>
       </c>
       <c r="H44">
-        <v>-0.05225138386227828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.03315955568875059</v>
+      </c>
+      <c r="I44">
+        <v>0.02898173996978359</v>
+      </c>
+      <c r="J44">
+        <v>0.0303889772337535</v>
+      </c>
+      <c r="K44">
+        <v>-0.03838213857515159</v>
+      </c>
+      <c r="L44">
+        <v>-0.05122481890330462</v>
+      </c>
+      <c r="M44">
+        <v>-0.02200241355863736</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03327830507329614</v>
+        <v>-0.03354328441830792</v>
       </c>
       <c r="C46">
-        <v>0.04776096464646382</v>
+        <v>-0.0392559042502619</v>
       </c>
       <c r="D46">
-        <v>-0.01559887278012673</v>
+        <v>-0.03394120823994424</v>
       </c>
       <c r="E46">
-        <v>-0.04722666803086612</v>
+        <v>-0.04331129817791481</v>
       </c>
       <c r="F46">
-        <v>0.01327178250808229</v>
+        <v>-0.05733098138286587</v>
       </c>
       <c r="G46">
-        <v>0.0080542252151194</v>
+        <v>-0.004356324381948182</v>
       </c>
       <c r="H46">
-        <v>0.01286112680106909</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.01574492637322939</v>
+      </c>
+      <c r="I46">
+        <v>0.03322821526454266</v>
+      </c>
+      <c r="J46">
+        <v>-0.01986167255846705</v>
+      </c>
+      <c r="K46">
+        <v>-0.1185907267831143</v>
+      </c>
+      <c r="L46">
+        <v>0.01907961369008794</v>
+      </c>
+      <c r="M46">
+        <v>0.01398111211382991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03162808042613438</v>
+        <v>-0.04216297017438655</v>
       </c>
       <c r="C47">
-        <v>0.01176749715159782</v>
+        <v>-0.0286233319411374</v>
       </c>
       <c r="D47">
-        <v>-0.002032660926581925</v>
+        <v>-0.01726105218523464</v>
       </c>
       <c r="E47">
-        <v>-0.06353724291272278</v>
+        <v>-0.01074102609928746</v>
       </c>
       <c r="F47">
-        <v>0.02397668020669286</v>
+        <v>-0.0366789710683425</v>
       </c>
       <c r="G47">
-        <v>-0.01033552125560889</v>
+        <v>-0.01021320912547355</v>
       </c>
       <c r="H47">
-        <v>0.007564063835639347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.005400600185899124</v>
+      </c>
+      <c r="I47">
+        <v>-0.02044189839837841</v>
+      </c>
+      <c r="J47">
+        <v>-0.01468158081877801</v>
+      </c>
+      <c r="K47">
+        <v>-0.05678492036857877</v>
+      </c>
+      <c r="L47">
+        <v>-0.006769282974251329</v>
+      </c>
+      <c r="M47">
+        <v>0.05140951531143223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03975860473995403</v>
+        <v>-0.04252572902548437</v>
       </c>
       <c r="C48">
-        <v>0.02409633944213622</v>
+        <v>-0.02044032063629741</v>
       </c>
       <c r="D48">
-        <v>0.003392734581019111</v>
+        <v>-0.007891217618955141</v>
       </c>
       <c r="E48">
-        <v>-0.04980245654614071</v>
+        <v>-0.007041272528231867</v>
       </c>
       <c r="F48">
-        <v>0.03517446106942718</v>
+        <v>-0.07292919172858069</v>
       </c>
       <c r="G48">
-        <v>-0.009770313459245752</v>
+        <v>0.02034063937139942</v>
       </c>
       <c r="H48">
-        <v>-0.03621730576061586</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.0283712775322976</v>
+      </c>
+      <c r="I48">
+        <v>-0.009087528886102586</v>
+      </c>
+      <c r="J48">
+        <v>-0.006494575165522358</v>
+      </c>
+      <c r="K48">
+        <v>-0.04411209625103311</v>
+      </c>
+      <c r="L48">
+        <v>0.04102008105946079</v>
+      </c>
+      <c r="M48">
+        <v>0.04097982845777619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2265851250292503</v>
+        <v>-0.2243908401325891</v>
       </c>
       <c r="C49">
-        <v>0.1130300187467515</v>
+        <v>-0.07273064890051481</v>
       </c>
       <c r="D49">
-        <v>-0.04209898504487726</v>
+        <v>0.05491676704909107</v>
       </c>
       <c r="E49">
-        <v>0.02659947797105473</v>
+        <v>-0.05852954389467684</v>
       </c>
       <c r="F49">
-        <v>-0.1902653440532339</v>
+        <v>0.2312990467565673</v>
       </c>
       <c r="G49">
-        <v>0.01984089258169974</v>
+        <v>0.107766794121756</v>
       </c>
       <c r="H49">
-        <v>0.05318549840263446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1823160385752462</v>
+      </c>
+      <c r="I49">
+        <v>0.08692907564693907</v>
+      </c>
+      <c r="J49">
+        <v>0.05554773033186441</v>
+      </c>
+      <c r="K49">
+        <v>0.1699439206287882</v>
+      </c>
+      <c r="L49">
+        <v>0.00635958341457848</v>
+      </c>
+      <c r="M49">
+        <v>0.0178196905411916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05754611314565745</v>
+        <v>-0.04602998424772892</v>
       </c>
       <c r="C50">
-        <v>0.02512628866349377</v>
+        <v>-0.03804448268857919</v>
       </c>
       <c r="D50">
-        <v>0.006943178304792196</v>
+        <v>0.0002249656494122072</v>
       </c>
       <c r="E50">
-        <v>-0.02401361525156634</v>
+        <v>0.005192469600977107</v>
       </c>
       <c r="F50">
-        <v>0.06168247760294005</v>
+        <v>-0.04914766878983441</v>
       </c>
       <c r="G50">
-        <v>-0.03940600207062939</v>
+        <v>-0.03096451699078876</v>
       </c>
       <c r="H50">
-        <v>0.01617698157139186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03167950279977976</v>
+      </c>
+      <c r="I50">
+        <v>-0.001459056593985681</v>
+      </c>
+      <c r="J50">
+        <v>-0.03062706201215046</v>
+      </c>
+      <c r="K50">
+        <v>-0.04345860614773028</v>
+      </c>
+      <c r="L50">
+        <v>0.02413052168005126</v>
+      </c>
+      <c r="M50">
+        <v>-0.009698944274789697</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02871005039426871</v>
+        <v>-0.02568410996993249</v>
       </c>
       <c r="C51">
-        <v>0.01392837017230869</v>
+        <v>-0.004910911279887575</v>
       </c>
       <c r="D51">
-        <v>-0.005723206148319575</v>
+        <v>0.002836450216190903</v>
       </c>
       <c r="E51">
-        <v>0.005687139022948719</v>
+        <v>-0.0197160888881408</v>
       </c>
       <c r="F51">
-        <v>0.009034419984449467</v>
+        <v>0.02394478554782379</v>
       </c>
       <c r="G51">
-        <v>0.01468519266061471</v>
+        <v>0.002798360006419121</v>
       </c>
       <c r="H51">
-        <v>-0.01251797423187131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.008138207776660055</v>
+      </c>
+      <c r="I51">
+        <v>0.003958449209716878</v>
+      </c>
+      <c r="J51">
+        <v>0.04903452113672749</v>
+      </c>
+      <c r="K51">
+        <v>0.04904464020963138</v>
+      </c>
+      <c r="L51">
+        <v>0.02318898503233866</v>
+      </c>
+      <c r="M51">
+        <v>0.01466063017007801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.04370930550186604</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01698185953911777</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01120781860808814</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01466549413478172</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01759075491003081</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05649682576769444</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01158353714741167</v>
+      </c>
+      <c r="I52">
+        <v>0.01796383649475587</v>
+      </c>
+      <c r="J52">
+        <v>-0.03490742543685441</v>
+      </c>
+      <c r="K52">
+        <v>0.02896864625790409</v>
+      </c>
+      <c r="L52">
+        <v>0.02663739011111861</v>
+      </c>
+      <c r="M52">
+        <v>-0.04487746920971774</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1689158882924677</v>
+        <v>-0.1633640455793014</v>
       </c>
       <c r="C53">
-        <v>-0.002023649870596837</v>
+        <v>-0.04833738842781155</v>
       </c>
       <c r="D53">
-        <v>-0.01925021022388822</v>
+        <v>0.0131956031798161</v>
       </c>
       <c r="E53">
-        <v>0.1141663651589598</v>
+        <v>0.005357581128885073</v>
       </c>
       <c r="F53">
-        <v>0.2165804418418399</v>
+        <v>0.06934261765133955</v>
       </c>
       <c r="G53">
-        <v>-0.02044801928037831</v>
+        <v>-0.1633171644158276</v>
       </c>
       <c r="H53">
-        <v>-0.02241584952841136</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1907406715195621</v>
+      </c>
+      <c r="I53">
+        <v>0.09772198194302548</v>
+      </c>
+      <c r="J53">
+        <v>-0.114731691393525</v>
+      </c>
+      <c r="K53">
+        <v>0.0117116926244357</v>
+      </c>
+      <c r="L53">
+        <v>-0.01600201090609899</v>
+      </c>
+      <c r="M53">
+        <v>-0.07672622223509475</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05313516352483728</v>
+        <v>-0.05437293175659141</v>
       </c>
       <c r="C54">
-        <v>0.03071672130074201</v>
+        <v>-0.04039289213046816</v>
       </c>
       <c r="D54">
-        <v>-0.02540996652608159</v>
+        <v>-0.01329147904264168</v>
       </c>
       <c r="E54">
-        <v>-0.0537506885925882</v>
+        <v>-0.02009542822307982</v>
       </c>
       <c r="F54">
-        <v>0.03401362006716299</v>
+        <v>-0.1368716174747754</v>
       </c>
       <c r="G54">
-        <v>0.01443916280626449</v>
+        <v>0.02721911701212188</v>
       </c>
       <c r="H54">
-        <v>0.01445640363545701</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.02252401931517722</v>
+      </c>
+      <c r="I54">
+        <v>-0.03893638352906856</v>
+      </c>
+      <c r="J54">
+        <v>-0.01177289442850945</v>
+      </c>
+      <c r="K54">
+        <v>-0.1489208696745984</v>
+      </c>
+      <c r="L54">
+        <v>0.01214001348633549</v>
+      </c>
+      <c r="M54">
+        <v>0.03437854082617659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09415434931350901</v>
+        <v>-0.086141654797522</v>
       </c>
       <c r="C55">
-        <v>0.002669133957049659</v>
+        <v>-0.03828811048216739</v>
       </c>
       <c r="D55">
-        <v>-0.01734997897887729</v>
+        <v>0.03030217987099157</v>
       </c>
       <c r="E55">
-        <v>0.04155927804627182</v>
+        <v>-0.00743994787729468</v>
       </c>
       <c r="F55">
-        <v>0.180454484805153</v>
+        <v>0.00167857074170638</v>
       </c>
       <c r="G55">
-        <v>-0.02378675793097424</v>
+        <v>-0.08763881585348825</v>
       </c>
       <c r="H55">
-        <v>-0.004955109735408397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1346433572196314</v>
+      </c>
+      <c r="I55">
+        <v>0.06434427984592687</v>
+      </c>
+      <c r="J55">
+        <v>-0.06479356616431213</v>
+      </c>
+      <c r="K55">
+        <v>-0.01235056925173491</v>
+      </c>
+      <c r="L55">
+        <v>-0.004576649523002902</v>
+      </c>
+      <c r="M55">
+        <v>0.03433010623485579</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1686930418892824</v>
+        <v>-0.1525479635776268</v>
       </c>
       <c r="C56">
-        <v>0.007486433234790317</v>
+        <v>-0.06503171544223106</v>
       </c>
       <c r="D56">
-        <v>-0.0188556338665799</v>
+        <v>0.03691825098595436</v>
       </c>
       <c r="E56">
-        <v>0.1031698629828176</v>
+        <v>-0.02518343829749821</v>
       </c>
       <c r="F56">
-        <v>0.2244826237472355</v>
+        <v>0.04375674207475152</v>
       </c>
       <c r="G56">
-        <v>-0.06004925137455794</v>
+        <v>-0.1557276478992237</v>
       </c>
       <c r="H56">
-        <v>-0.02502782745008102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1736207425206336</v>
+      </c>
+      <c r="I56">
+        <v>0.09624037916612986</v>
+      </c>
+      <c r="J56">
+        <v>-0.09870324814955676</v>
+      </c>
+      <c r="K56">
+        <v>0.01292057081062692</v>
+      </c>
+      <c r="L56">
+        <v>-0.05405625203490107</v>
+      </c>
+      <c r="M56">
+        <v>-0.009206594616526691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02718175492080513</v>
+        <v>-0.04288962329658986</v>
       </c>
       <c r="C58">
-        <v>0.04897562455368735</v>
+        <v>-0.03701976641168686</v>
       </c>
       <c r="D58">
-        <v>0.02389070796145548</v>
+        <v>-0.08413602977269594</v>
       </c>
       <c r="E58">
-        <v>-0.4174390489758296</v>
+        <v>-0.01779609650000213</v>
       </c>
       <c r="F58">
-        <v>-0.2923808417407016</v>
+        <v>-0.03955440936098764</v>
       </c>
       <c r="G58">
-        <v>-0.2090943459232002</v>
+        <v>-0.03414345005607453</v>
       </c>
       <c r="H58">
-        <v>-0.5340727906914997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1454912673659022</v>
+      </c>
+      <c r="I58">
+        <v>-0.05931496589476865</v>
+      </c>
+      <c r="J58">
+        <v>0.1712217074995253</v>
+      </c>
+      <c r="K58">
+        <v>-0.0002583317290910771</v>
+      </c>
+      <c r="L58">
+        <v>0.4634834564843017</v>
+      </c>
+      <c r="M58">
+        <v>0.06352020487592497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.1966797999325863</v>
+        <v>-0.2216998935026963</v>
       </c>
       <c r="C59">
-        <v>-0.4068420897536674</v>
+        <v>0.2958307582708986</v>
       </c>
       <c r="D59">
-        <v>-0.08356731017827473</v>
+        <v>0.04366608997477062</v>
       </c>
       <c r="E59">
-        <v>0.001740219466085961</v>
+        <v>-0.001167235056253762</v>
       </c>
       <c r="F59">
-        <v>0.05090220403857442</v>
+        <v>-0.0193654268148216</v>
       </c>
       <c r="G59">
-        <v>0.07314670578243269</v>
+        <v>0.00407380924291003</v>
       </c>
       <c r="H59">
-        <v>-0.02830828309308829</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1275023026218912</v>
+      </c>
+      <c r="I59">
+        <v>0.01951914642324872</v>
+      </c>
+      <c r="J59">
+        <v>0.04861823350967288</v>
+      </c>
+      <c r="K59">
+        <v>0.08611569350066293</v>
+      </c>
+      <c r="L59">
+        <v>-0.07930847522463795</v>
+      </c>
+      <c r="M59">
+        <v>-0.02313294062272818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.266407826660616</v>
+        <v>-0.2413788093538852</v>
       </c>
       <c r="C60">
-        <v>0.06769048422667455</v>
+        <v>-0.1201801760434814</v>
       </c>
       <c r="D60">
-        <v>-0.08250742139013366</v>
+        <v>0.06722372008716727</v>
       </c>
       <c r="E60">
-        <v>0.02180926416890713</v>
+        <v>-0.04617490347417877</v>
       </c>
       <c r="F60">
-        <v>-0.07872811606065674</v>
+        <v>0.1365472535169602</v>
       </c>
       <c r="G60">
-        <v>-0.04693246930438534</v>
+        <v>0.03994807401389359</v>
       </c>
       <c r="H60">
-        <v>0.1334817754569552</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07166579405323292</v>
+      </c>
+      <c r="I60">
+        <v>-0.06087445169562541</v>
+      </c>
+      <c r="J60">
+        <v>-0.1456331415622444</v>
+      </c>
+      <c r="K60">
+        <v>0.2131334035746692</v>
+      </c>
+      <c r="L60">
+        <v>0.01712820776769621</v>
+      </c>
+      <c r="M60">
+        <v>-0.08411728570215771</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08572885438952656</v>
+        <v>-0.1029240687068412</v>
       </c>
       <c r="C61">
-        <v>0.04458972732124154</v>
+        <v>-0.06253819185519144</v>
       </c>
       <c r="D61">
-        <v>-0.007036143074066248</v>
+        <v>0.05086266331501451</v>
       </c>
       <c r="E61">
-        <v>0.00727086251119939</v>
+        <v>-0.008806141858510695</v>
       </c>
       <c r="F61">
-        <v>0.008222392403766703</v>
+        <v>-0.1409537043487847</v>
       </c>
       <c r="G61">
-        <v>0.04371670860402952</v>
+        <v>-0.09258408852228918</v>
       </c>
       <c r="H61">
-        <v>-0.08053466811625012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.01358657048367574</v>
+      </c>
+      <c r="I61">
+        <v>0.03700950702199925</v>
+      </c>
+      <c r="J61">
+        <v>0.0964942817350963</v>
+      </c>
+      <c r="K61">
+        <v>0.01356340185678596</v>
+      </c>
+      <c r="L61">
+        <v>0.04612333276805211</v>
+      </c>
+      <c r="M61">
+        <v>0.009122628822221857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1578509993698753</v>
+        <v>-0.1439061514796625</v>
       </c>
       <c r="C62">
-        <v>0.02925486515225969</v>
+        <v>-0.0667213254136335</v>
       </c>
       <c r="D62">
-        <v>0.02026529239549269</v>
+        <v>0.03371013704006248</v>
       </c>
       <c r="E62">
-        <v>0.1736752274899135</v>
+        <v>0.01700499419740033</v>
       </c>
       <c r="F62">
-        <v>0.2014367244153462</v>
+        <v>0.05361652293898475</v>
       </c>
       <c r="G62">
-        <v>0.004325128509778666</v>
+        <v>-0.1119207004368267</v>
       </c>
       <c r="H62">
-        <v>-0.008244102223680359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1542183054183593</v>
+      </c>
+      <c r="I62">
+        <v>0.1191388297868932</v>
+      </c>
+      <c r="J62">
+        <v>-0.1460745385707166</v>
+      </c>
+      <c r="K62">
+        <v>-0.03920546618607372</v>
+      </c>
+      <c r="L62">
+        <v>-0.06241908073497101</v>
+      </c>
+      <c r="M62">
+        <v>0.04661327761758165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03916544142359499</v>
+        <v>-0.04435966512685627</v>
       </c>
       <c r="C63">
-        <v>0.03035977903905672</v>
+        <v>-0.02931493266694873</v>
       </c>
       <c r="D63">
-        <v>0.003229753043017297</v>
+        <v>0.004930357055667531</v>
       </c>
       <c r="E63">
-        <v>-0.001922663668457723</v>
+        <v>0.01044953749332532</v>
       </c>
       <c r="F63">
-        <v>0.01713411770239143</v>
+        <v>-0.07273829337696633</v>
       </c>
       <c r="G63">
-        <v>-0.0008605298324934002</v>
+        <v>0.001793993975959252</v>
       </c>
       <c r="H63">
-        <v>0.02502417203002396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.009662135161626484</v>
+      </c>
+      <c r="I63">
+        <v>-0.0006167486342424937</v>
+      </c>
+      <c r="J63">
+        <v>0.005322831649398567</v>
+      </c>
+      <c r="K63">
+        <v>-0.0321420034507675</v>
+      </c>
+      <c r="L63">
+        <v>0.0399111827619468</v>
+      </c>
+      <c r="M63">
+        <v>0.02322848488002243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1094052841950645</v>
+        <v>-0.09883097961555964</v>
       </c>
       <c r="C64">
-        <v>0.03145279949230927</v>
+        <v>-0.04805746320034973</v>
       </c>
       <c r="D64">
-        <v>-0.04298484872339221</v>
+        <v>-0.001803286989995986</v>
       </c>
       <c r="E64">
-        <v>-0.04140286726529924</v>
+        <v>-0.03090169170940955</v>
       </c>
       <c r="F64">
-        <v>-0.01901964013581827</v>
+        <v>-0.08279074379245675</v>
       </c>
       <c r="G64">
-        <v>0.06653126505109792</v>
+        <v>-0.02685155845262517</v>
       </c>
       <c r="H64">
-        <v>0.02164530581022829</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.08095443748205383</v>
+      </c>
+      <c r="I64">
+        <v>-0.04227727594448687</v>
+      </c>
+      <c r="J64">
+        <v>0.02861025477919425</v>
+      </c>
+      <c r="K64">
+        <v>0.02140855485017993</v>
+      </c>
+      <c r="L64">
+        <v>-0.01394731673133219</v>
+      </c>
+      <c r="M64">
+        <v>-0.05597890966795795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1288800151776837</v>
+        <v>-0.1250140224305124</v>
       </c>
       <c r="C65">
-        <v>0.04581924499307063</v>
+        <v>-0.05283372018529398</v>
       </c>
       <c r="D65">
-        <v>-0.03355418406686844</v>
+        <v>0.009393064099222722</v>
       </c>
       <c r="E65">
-        <v>-0.09405184191829677</v>
+        <v>0.02443894334158402</v>
       </c>
       <c r="F65">
-        <v>-0.1861796626603855</v>
+        <v>0.03136856508149231</v>
       </c>
       <c r="G65">
-        <v>-0.2865742183834383</v>
+        <v>0.1079053851387097</v>
       </c>
       <c r="H65">
-        <v>0.490745810056577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.05330490758120311</v>
+      </c>
+      <c r="I65">
+        <v>-0.4076346028950312</v>
+      </c>
+      <c r="J65">
+        <v>-0.5321720050751007</v>
+      </c>
+      <c r="K65">
+        <v>-0.02143607268933534</v>
+      </c>
+      <c r="L65">
+        <v>0.2617251781672985</v>
+      </c>
+      <c r="M65">
+        <v>-0.04955745992696781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1587895964507153</v>
+        <v>-0.1347236501319257</v>
       </c>
       <c r="C66">
-        <v>0.09513667062678011</v>
+        <v>-0.1248509562544287</v>
       </c>
       <c r="D66">
-        <v>0.007884658779382454</v>
+        <v>0.1022253287379341</v>
       </c>
       <c r="E66">
-        <v>0.02122536992135282</v>
+        <v>0.03602025223949724</v>
       </c>
       <c r="F66">
-        <v>0.01048941121807724</v>
+        <v>-0.1648618749863271</v>
       </c>
       <c r="G66">
-        <v>0.2343963818627503</v>
+        <v>-0.1187791593062876</v>
       </c>
       <c r="H66">
-        <v>-0.2478923894444569</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.08147952131976692</v>
+      </c>
+      <c r="I66">
+        <v>0.07365082168447683</v>
+      </c>
+      <c r="J66">
+        <v>0.1546717970228828</v>
+      </c>
+      <c r="K66">
+        <v>0.1778612789894499</v>
+      </c>
+      <c r="L66">
+        <v>0.03689306931450681</v>
+      </c>
+      <c r="M66">
+        <v>-0.092236133923216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08935565455827277</v>
+        <v>-0.07622893796518061</v>
       </c>
       <c r="C67">
-        <v>0.05380886479399013</v>
+        <v>-0.0543021723255734</v>
       </c>
       <c r="D67">
-        <v>-0.02373593163738443</v>
+        <v>-0.01768474898036066</v>
       </c>
       <c r="E67">
-        <v>-0.002678477475495954</v>
+        <v>-0.03153694569225463</v>
       </c>
       <c r="F67">
-        <v>0.03345206584996174</v>
+        <v>0.04657780627098219</v>
       </c>
       <c r="G67">
-        <v>0.03326733983746187</v>
+        <v>-0.05749037039118298</v>
       </c>
       <c r="H67">
-        <v>-0.005280392911656355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.03441481799178342</v>
+      </c>
+      <c r="I67">
+        <v>0.004912450785107517</v>
+      </c>
+      <c r="J67">
+        <v>0.03710589929531613</v>
+      </c>
+      <c r="K67">
+        <v>0.008959449263587597</v>
+      </c>
+      <c r="L67">
+        <v>-0.1630400607502073</v>
+      </c>
+      <c r="M67">
+        <v>-0.0482813885938013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.07420423288442156</v>
+        <v>-0.1217803898539497</v>
       </c>
       <c r="C68">
-        <v>-0.2896835671928554</v>
+        <v>0.2710857863343339</v>
       </c>
       <c r="D68">
-        <v>-0.02842727199571118</v>
+        <v>0.006112638379897123</v>
       </c>
       <c r="E68">
-        <v>-0.02922818636837052</v>
+        <v>0.01488917031258292</v>
       </c>
       <c r="F68">
-        <v>0.03028888632611039</v>
+        <v>-0.04027530070675397</v>
       </c>
       <c r="G68">
-        <v>-0.03741058643919426</v>
+        <v>-0.02159864707628812</v>
       </c>
       <c r="H68">
-        <v>-0.0105945751563311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.009474150248405091</v>
+      </c>
+      <c r="I68">
+        <v>-0.02188474066091886</v>
+      </c>
+      <c r="J68">
+        <v>-0.03699731904164621</v>
+      </c>
+      <c r="K68">
+        <v>-0.01051631474021251</v>
+      </c>
+      <c r="L68">
+        <v>0.04556093209037306</v>
+      </c>
+      <c r="M68">
+        <v>-0.006878112805666112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03421730787810402</v>
+        <v>-0.04428579548885057</v>
       </c>
       <c r="C69">
-        <v>0.01843439741134156</v>
+        <v>-0.01919117339974374</v>
       </c>
       <c r="D69">
-        <v>-0.005564684274017311</v>
+        <v>-0.003126706670648759</v>
       </c>
       <c r="E69">
-        <v>-0.006338466085273958</v>
+        <v>-0.002902212306019779</v>
       </c>
       <c r="F69">
-        <v>0.03397673542146015</v>
+        <v>-0.02320757142110534</v>
       </c>
       <c r="G69">
-        <v>0.03539966932526341</v>
+        <v>-0.03503686090218932</v>
       </c>
       <c r="H69">
-        <v>0.02495644001686049</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.003656052502628544</v>
+      </c>
+      <c r="I69">
+        <v>-0.008849993633912019</v>
+      </c>
+      <c r="J69">
+        <v>0.0002884740619890516</v>
+      </c>
+      <c r="K69">
+        <v>-0.0210469555623537</v>
+      </c>
+      <c r="L69">
+        <v>-0.01168682740972335</v>
+      </c>
+      <c r="M69">
+        <v>0.05306988705722263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.06371270841045795</v>
+        <v>-0.05394266913059056</v>
       </c>
       <c r="C70">
-        <v>0.01455315990655089</v>
+        <v>-0.02503578249816927</v>
       </c>
       <c r="D70">
-        <v>-0.03689265509694985</v>
+        <v>0.02915439597699359</v>
       </c>
       <c r="E70">
-        <v>0.0004531900336029375</v>
+        <v>-0.02264728176801181</v>
       </c>
       <c r="F70">
-        <v>-0.08451687350980994</v>
+        <v>-0.0376357740048178</v>
       </c>
       <c r="G70">
-        <v>-0.0389464372503146</v>
+        <v>0.01729933435100261</v>
       </c>
       <c r="H70">
-        <v>0.006170659580097638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02835469448057677</v>
+      </c>
+      <c r="I70">
+        <v>-0.0954501062266308</v>
+      </c>
+      <c r="J70">
+        <v>0.03756319387774624</v>
+      </c>
+      <c r="K70">
+        <v>-0.3197508724757428</v>
+      </c>
+      <c r="L70">
+        <v>-0.1893304810695448</v>
+      </c>
+      <c r="M70">
+        <v>-0.09791668913534084</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08243505862320792</v>
+        <v>-0.1383115313329065</v>
       </c>
       <c r="C71">
-        <v>-0.2845866548612708</v>
+        <v>0.2797322370974651</v>
       </c>
       <c r="D71">
-        <v>-0.05867434675752565</v>
+        <v>0.01219271621895451</v>
       </c>
       <c r="E71">
-        <v>-0.0135933905763323</v>
+        <v>-0.004762006858839559</v>
       </c>
       <c r="F71">
-        <v>-0.005785927267830994</v>
+        <v>-0.03297416806519094</v>
       </c>
       <c r="G71">
-        <v>-0.01733408197618475</v>
+        <v>-0.03556323854719008</v>
       </c>
       <c r="H71">
-        <v>-0.01602105543713855</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.01664096447764358</v>
+      </c>
+      <c r="I71">
+        <v>-0.01213773784995129</v>
+      </c>
+      <c r="J71">
+        <v>-0.01145116841341372</v>
+      </c>
+      <c r="K71">
+        <v>0.009225092333394093</v>
+      </c>
+      <c r="L71">
+        <v>0.02991031486243445</v>
+      </c>
+      <c r="M71">
+        <v>-0.0009693538917266559</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1783391637741236</v>
+        <v>-0.1486591021417295</v>
       </c>
       <c r="C72">
-        <v>0.0006919923581147481</v>
+        <v>-0.02968469876668253</v>
       </c>
       <c r="D72">
-        <v>0.2330464536059038</v>
+        <v>-0.01122236620594454</v>
       </c>
       <c r="E72">
-        <v>0.02604556258764725</v>
+        <v>0.1504518739757587</v>
       </c>
       <c r="F72">
-        <v>0.04059457938467305</v>
+        <v>-0.01279696938175616</v>
       </c>
       <c r="G72">
-        <v>0.04420607659389617</v>
+        <v>-0.04018662825142177</v>
       </c>
       <c r="H72">
-        <v>0.130311779675821</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03030499713442431</v>
+      </c>
+      <c r="I72">
+        <v>-0.01460498031089717</v>
+      </c>
+      <c r="J72">
+        <v>-0.1361723518918319</v>
+      </c>
+      <c r="K72">
+        <v>0.07714479826421837</v>
+      </c>
+      <c r="L72">
+        <v>-0.01478452589320617</v>
+      </c>
+      <c r="M72">
+        <v>0.01089020151980325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2907585098768859</v>
+        <v>-0.2409501731825403</v>
       </c>
       <c r="C73">
-        <v>0.1643382495282943</v>
+        <v>-0.14686844699829</v>
       </c>
       <c r="D73">
-        <v>-0.09806786480255561</v>
+        <v>0.148684125464567</v>
       </c>
       <c r="E73">
-        <v>0.04835006301433129</v>
+        <v>-0.1198206076763953</v>
       </c>
       <c r="F73">
-        <v>-0.2474579799368016</v>
+        <v>0.4662424546505453</v>
       </c>
       <c r="G73">
-        <v>-0.1225506718963363</v>
+        <v>0.004382583262228357</v>
       </c>
       <c r="H73">
-        <v>0.01931877918231438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2900508093758107</v>
+      </c>
+      <c r="I73">
+        <v>-0.03678350526844239</v>
+      </c>
+      <c r="J73">
+        <v>0.1948221163025461</v>
+      </c>
+      <c r="K73">
+        <v>0.2452339296025486</v>
+      </c>
+      <c r="L73">
+        <v>0.09993424476980656</v>
+      </c>
+      <c r="M73">
+        <v>-0.04705251334596536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09416916143813331</v>
+        <v>-0.1014838426852444</v>
       </c>
       <c r="C74">
-        <v>0.03402128842605606</v>
+        <v>-0.07339563441415488</v>
       </c>
       <c r="D74">
-        <v>-0.006351754967353706</v>
+        <v>0.0110550713341148</v>
       </c>
       <c r="E74">
-        <v>0.03781130245751824</v>
+        <v>0.005244015311501172</v>
       </c>
       <c r="F74">
-        <v>0.1002115605591838</v>
+        <v>0.04050413520084709</v>
       </c>
       <c r="G74">
-        <v>-0.05558445288321183</v>
+        <v>-0.1369728925806914</v>
       </c>
       <c r="H74">
-        <v>-0.02810557967589359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.06164610521497037</v>
+      </c>
+      <c r="I74">
+        <v>0.04505504975427436</v>
+      </c>
+      <c r="J74">
+        <v>-0.03943952356261007</v>
+      </c>
+      <c r="K74">
+        <v>0.0003642143135883232</v>
+      </c>
+      <c r="L74">
+        <v>0.003557509817715396</v>
+      </c>
+      <c r="M74">
+        <v>0.01018558136705271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09748507169725805</v>
+        <v>-0.09810604551232878</v>
       </c>
       <c r="C75">
-        <v>0.0183715130219855</v>
+        <v>-0.05155360649948237</v>
       </c>
       <c r="D75">
-        <v>-0.000411585276015597</v>
+        <v>0.008154510591222106</v>
       </c>
       <c r="E75">
-        <v>0.05105593244302535</v>
+        <v>-0.00186555293923381</v>
       </c>
       <c r="F75">
-        <v>0.1247937668421742</v>
+        <v>0.03470506138503048</v>
       </c>
       <c r="G75">
-        <v>-0.04779583504710382</v>
+        <v>-0.0587342210234039</v>
       </c>
       <c r="H75">
-        <v>-0.002235478846576796</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1159556267588673</v>
+      </c>
+      <c r="I75">
+        <v>0.03980651806686937</v>
+      </c>
+      <c r="J75">
+        <v>-0.05226785156790702</v>
+      </c>
+      <c r="K75">
+        <v>0.007083811619590462</v>
+      </c>
+      <c r="L75">
+        <v>-0.0120735394138738</v>
+      </c>
+      <c r="M75">
+        <v>0.05444585954372871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1335694284857276</v>
+        <v>-0.07585964651105176</v>
       </c>
       <c r="C76">
-        <v>0.02835415895795894</v>
+        <v>-0.05514003070579091</v>
       </c>
       <c r="D76">
-        <v>-0.01427515757071567</v>
+        <v>0.006672561718940897</v>
       </c>
       <c r="E76">
-        <v>0.04732136630165393</v>
+        <v>-0.02286249980738479</v>
       </c>
       <c r="F76">
-        <v>0.226710113526866</v>
+        <v>0.06478043772299399</v>
       </c>
       <c r="G76">
-        <v>-0.0685889764135061</v>
+        <v>-0.09021002651952804</v>
       </c>
       <c r="H76">
-        <v>-0.00583640591931012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1714956759026229</v>
+      </c>
+      <c r="I76">
+        <v>0.06825853931304621</v>
+      </c>
+      <c r="J76">
+        <v>-0.01992481353105284</v>
+      </c>
+      <c r="K76">
+        <v>-0.03056177237234058</v>
+      </c>
+      <c r="L76">
+        <v>-0.0249680972434083</v>
+      </c>
+      <c r="M76">
+        <v>-0.01452949973058121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07805713481758113</v>
+        <v>-0.0688563651518916</v>
       </c>
       <c r="C77">
-        <v>0.03186007692825819</v>
+        <v>-0.02684318064924324</v>
       </c>
       <c r="D77">
-        <v>-0.03017478742316287</v>
+        <v>0.02874880876550627</v>
       </c>
       <c r="E77">
-        <v>-0.1089594587908919</v>
+        <v>-0.03682456836574759</v>
       </c>
       <c r="F77">
-        <v>-0.1975962153410355</v>
+        <v>-0.2426421275855366</v>
       </c>
       <c r="G77">
-        <v>0.6565879537607171</v>
+        <v>0.07679312209707875</v>
       </c>
       <c r="H77">
-        <v>0.226021499857519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1461156492079233</v>
+      </c>
+      <c r="I77">
+        <v>-0.2779798859369872</v>
+      </c>
+      <c r="J77">
+        <v>-0.02647924017601383</v>
+      </c>
+      <c r="K77">
+        <v>0.3658218318763133</v>
+      </c>
+      <c r="L77">
+        <v>-0.5766218436586773</v>
+      </c>
+      <c r="M77">
+        <v>0.06559960183290876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1753549261807885</v>
+        <v>-0.1487055671400564</v>
       </c>
       <c r="C78">
-        <v>0.09516103418902395</v>
+        <v>-0.1107625248574146</v>
       </c>
       <c r="D78">
-        <v>-0.04315767160709584</v>
+        <v>-0.1844716716111829</v>
       </c>
       <c r="E78">
-        <v>-0.2034561622282114</v>
+        <v>-0.1260662431618865</v>
       </c>
       <c r="F78">
-        <v>0.01930889902032014</v>
+        <v>-0.1307721647135847</v>
       </c>
       <c r="G78">
-        <v>0.08950309997687628</v>
+        <v>0.6347162836347068</v>
       </c>
       <c r="H78">
-        <v>0.09675943214605962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5335940463194165</v>
+      </c>
+      <c r="I78">
+        <v>-0.01053609978389898</v>
+      </c>
+      <c r="J78">
+        <v>0.1789368072818926</v>
+      </c>
+      <c r="K78">
+        <v>0.2301928729276033</v>
+      </c>
+      <c r="L78">
+        <v>0.1044639442132962</v>
+      </c>
+      <c r="M78">
+        <v>-0.1180490586950004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1370165820305154</v>
+        <v>-0.135647840541319</v>
       </c>
       <c r="C79">
-        <v>0.03277913106505159</v>
+        <v>-0.07281667639180329</v>
       </c>
       <c r="D79">
-        <v>-0.001620321002186173</v>
+        <v>0.006226742954101042</v>
       </c>
       <c r="E79">
-        <v>0.07032998113972051</v>
+        <v>-0.01323573782850313</v>
       </c>
       <c r="F79">
-        <v>0.1673948576524707</v>
+        <v>0.006378867326914717</v>
       </c>
       <c r="G79">
-        <v>-0.02477045757096032</v>
+        <v>-0.1189054255680031</v>
       </c>
       <c r="H79">
-        <v>-0.009381784041752704</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1145364553072832</v>
+      </c>
+      <c r="I79">
+        <v>0.08665460704947424</v>
+      </c>
+      <c r="J79">
+        <v>-0.09933191312360247</v>
+      </c>
+      <c r="K79">
+        <v>-0.0004034979093805948</v>
+      </c>
+      <c r="L79">
+        <v>-0.02847688189682395</v>
+      </c>
+      <c r="M79">
+        <v>0.04866282748090928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03654485262684737</v>
+        <v>-0.05942148522679608</v>
       </c>
       <c r="C80">
-        <v>0.01333747160392535</v>
+        <v>-0.02950506983192062</v>
       </c>
       <c r="D80">
-        <v>-0.01297407194084121</v>
+        <v>0.06976393879946463</v>
       </c>
       <c r="E80">
-        <v>0.03031619291886863</v>
+        <v>-0.004419618551939813</v>
       </c>
       <c r="F80">
-        <v>-0.01361842940351089</v>
+        <v>-0.03904263689492694</v>
       </c>
       <c r="G80">
-        <v>-0.009629204731285586</v>
+        <v>-0.003671636202834932</v>
       </c>
       <c r="H80">
-        <v>0.05911837922200952</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.01528075340138976</v>
+      </c>
+      <c r="I80">
+        <v>-0.06968510032421613</v>
+      </c>
+      <c r="J80">
+        <v>0.03876871027889921</v>
+      </c>
+      <c r="K80">
+        <v>-0.1664477910650836</v>
+      </c>
+      <c r="L80">
+        <v>0.1368225685452216</v>
+      </c>
+      <c r="M80">
+        <v>-0.03348394765358072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1060500234865955</v>
+        <v>-0.1231042533871571</v>
       </c>
       <c r="C81">
-        <v>0.03216230514803263</v>
+        <v>-0.06389383830792708</v>
       </c>
       <c r="D81">
-        <v>-0.013959828388153</v>
+        <v>0.002590870723658345</v>
       </c>
       <c r="E81">
-        <v>0.08282991993288313</v>
+        <v>0.0001895673024787012</v>
       </c>
       <c r="F81">
-        <v>0.1215183275634238</v>
+        <v>-0.009631627230805455</v>
       </c>
       <c r="G81">
-        <v>-0.01417478664852709</v>
+        <v>-0.0774821341695926</v>
       </c>
       <c r="H81">
-        <v>0.03437890699468955</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.0992141716070381</v>
+      </c>
+      <c r="I81">
+        <v>0.08253867073429541</v>
+      </c>
+      <c r="J81">
+        <v>-0.06558041223772179</v>
+      </c>
+      <c r="K81">
+        <v>0.004102589882754809</v>
+      </c>
+      <c r="L81">
+        <v>-0.02242067478278797</v>
+      </c>
+      <c r="M81">
+        <v>0.06044470654986399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1119889116098983</v>
+        <v>-0.1282557045661648</v>
       </c>
       <c r="C82">
-        <v>0.02747291206411653</v>
+        <v>-0.05093023706271165</v>
       </c>
       <c r="D82">
-        <v>-0.06435998705082117</v>
+        <v>0.02545824107721426</v>
       </c>
       <c r="E82">
-        <v>0.1041358448770351</v>
+        <v>-0.008401144881625624</v>
       </c>
       <c r="F82">
-        <v>0.2322510060550643</v>
+        <v>0.02585721698821988</v>
       </c>
       <c r="G82">
-        <v>-0.02605838279538883</v>
+        <v>-0.1892491183455784</v>
       </c>
       <c r="H82">
-        <v>-0.09643452424620319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1432320068342414</v>
+      </c>
+      <c r="I82">
+        <v>0.1439444581186918</v>
+      </c>
+      <c r="J82">
+        <v>-0.01791104767667508</v>
+      </c>
+      <c r="K82">
+        <v>-0.06915701553261999</v>
+      </c>
+      <c r="L82">
+        <v>-0.04625296097981226</v>
+      </c>
+      <c r="M82">
+        <v>0.04940398266161004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08367241619096186</v>
+        <v>-0.07853204271372556</v>
       </c>
       <c r="C83">
-        <v>0.06739769751571052</v>
+        <v>-0.08137466108428276</v>
       </c>
       <c r="D83">
-        <v>-0.05243917105925275</v>
+        <v>0.03117670750921835</v>
       </c>
       <c r="E83">
-        <v>-0.008276072230207486</v>
+        <v>0.003284390886594212</v>
       </c>
       <c r="F83">
-        <v>-0.05082189785674023</v>
+        <v>-0.05338529667118384</v>
       </c>
       <c r="G83">
-        <v>0.03159468536224932</v>
+        <v>-0.103852908601273</v>
       </c>
       <c r="H83">
-        <v>-0.09800796977279394</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02303179499074536</v>
+      </c>
+      <c r="I83">
+        <v>-0.09325337130506484</v>
+      </c>
+      <c r="J83">
+        <v>0.09722547066378583</v>
+      </c>
+      <c r="K83">
+        <v>-0.1369262191879634</v>
+      </c>
+      <c r="L83">
+        <v>-0.02020872854505389</v>
+      </c>
+      <c r="M83">
+        <v>-0.05257876045382789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05729769078740958</v>
+        <v>-0.06081358839920736</v>
       </c>
       <c r="C84">
-        <v>0.04621054945871973</v>
+        <v>0.01724258898156807</v>
       </c>
       <c r="D84">
-        <v>0.05648081605492753</v>
+        <v>-0.00376071259738023</v>
       </c>
       <c r="E84">
-        <v>-0.01591785493494893</v>
+        <v>0.01745813456735082</v>
       </c>
       <c r="F84">
-        <v>0.0676371752647358</v>
+        <v>-0.01746827951896511</v>
       </c>
       <c r="G84">
-        <v>-0.1393311492313934</v>
+        <v>0.1594385323362243</v>
       </c>
       <c r="H84">
-        <v>-0.07391074708687689</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.115837097294905</v>
+      </c>
+      <c r="I84">
+        <v>0.232038572386437</v>
+      </c>
+      <c r="J84">
+        <v>0.1148095505375312</v>
+      </c>
+      <c r="K84">
+        <v>-0.1340880606667568</v>
+      </c>
+      <c r="L84">
+        <v>0.1552502829273534</v>
+      </c>
+      <c r="M84">
+        <v>-0.2061772376088266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09497871564485171</v>
+        <v>-0.1110834671055162</v>
       </c>
       <c r="C85">
-        <v>0.03630656224707521</v>
+        <v>-0.05012270438961613</v>
       </c>
       <c r="D85">
-        <v>-0.02776884660166306</v>
+        <v>0.01707256783957927</v>
       </c>
       <c r="E85">
-        <v>0.06406887342717942</v>
+        <v>-0.03799329697499054</v>
       </c>
       <c r="F85">
-        <v>0.1826184344636739</v>
+        <v>0.006314242828930606</v>
       </c>
       <c r="G85">
-        <v>0.008252284415874249</v>
+        <v>-0.123321406201731</v>
       </c>
       <c r="H85">
-        <v>0.01706565893852325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1119981025412535</v>
+      </c>
+      <c r="I85">
+        <v>0.08490749257847018</v>
+      </c>
+      <c r="J85">
+        <v>-0.1090864336426317</v>
+      </c>
+      <c r="K85">
+        <v>0.01703704730666921</v>
+      </c>
+      <c r="L85">
+        <v>-0.03613546955552641</v>
+      </c>
+      <c r="M85">
+        <v>0.05223316085380326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.05144972971932253</v>
+        <v>-0.07647442845908904</v>
       </c>
       <c r="C86">
-        <v>0.04188283490774881</v>
+        <v>-0.02534026786766548</v>
       </c>
       <c r="D86">
-        <v>-0.03410953597128503</v>
+        <v>-0.01106068482208023</v>
       </c>
       <c r="E86">
-        <v>-0.02903652517090572</v>
+        <v>-0.1236240350635352</v>
       </c>
       <c r="F86">
-        <v>-0.02513656467380889</v>
+        <v>-0.04618450271070454</v>
       </c>
       <c r="G86">
-        <v>0.04083772335087336</v>
+        <v>0.3468882267743707</v>
       </c>
       <c r="H86">
-        <v>0.200166506347169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.3332531427952015</v>
+      </c>
+      <c r="I86">
+        <v>0.587454482858449</v>
+      </c>
+      <c r="J86">
+        <v>-0.3835897555510308</v>
+      </c>
+      <c r="K86">
+        <v>-0.1115264490287034</v>
+      </c>
+      <c r="L86">
+        <v>-0.1137894714188031</v>
+      </c>
+      <c r="M86">
+        <v>-0.1809077521628268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09070079120109717</v>
+        <v>-0.1090425164808826</v>
       </c>
       <c r="C87">
-        <v>0.0519840898413375</v>
+        <v>-0.08258094908878817</v>
       </c>
       <c r="D87">
-        <v>-0.006082613372765324</v>
+        <v>-0.02165852490909187</v>
       </c>
       <c r="E87">
-        <v>-0.06058976882280693</v>
+        <v>0.006013722676973138</v>
       </c>
       <c r="F87">
-        <v>-0.01705881679304727</v>
+        <v>-0.1319161472220205</v>
       </c>
       <c r="G87">
-        <v>0.1290916854042022</v>
+        <v>0.04488668212122673</v>
       </c>
       <c r="H87">
-        <v>-0.02358355025325201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1013552391188214</v>
+      </c>
+      <c r="I87">
+        <v>-0.1035903502379067</v>
+      </c>
+      <c r="J87">
+        <v>0.0002005737280297322</v>
+      </c>
+      <c r="K87">
+        <v>-0.02404757062615322</v>
+      </c>
+      <c r="L87">
+        <v>-0.2186598668281251</v>
+      </c>
+      <c r="M87">
+        <v>0.1091777876071831</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05770705640344038</v>
+        <v>-0.05815470058043792</v>
       </c>
       <c r="C88">
-        <v>0.03900765454610482</v>
+        <v>-0.05429497371436159</v>
       </c>
       <c r="D88">
-        <v>-0.02199622502119203</v>
+        <v>0.03308101155121107</v>
       </c>
       <c r="E88">
-        <v>-0.00170172959562468</v>
+        <v>-0.006426362164883132</v>
       </c>
       <c r="F88">
-        <v>-0.01721718596929932</v>
+        <v>-0.04050392201550154</v>
       </c>
       <c r="G88">
-        <v>0.03751751885598231</v>
+        <v>-0.04414588529591524</v>
       </c>
       <c r="H88">
-        <v>-0.03074481171044667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01632971587036653</v>
+      </c>
+      <c r="I88">
+        <v>-0.00232524597669079</v>
+      </c>
+      <c r="J88">
+        <v>0.03523282975861</v>
+      </c>
+      <c r="K88">
+        <v>-0.02423084393121317</v>
+      </c>
+      <c r="L88">
+        <v>0.05470259106006915</v>
+      </c>
+      <c r="M88">
+        <v>0.03908138644698169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1349332881641808</v>
+        <v>-0.2036996997984719</v>
       </c>
       <c r="C89">
-        <v>-0.3495845517469741</v>
+        <v>0.3670061652204115</v>
       </c>
       <c r="D89">
-        <v>-0.09853946849914622</v>
+        <v>-0.03913413392410124</v>
       </c>
       <c r="E89">
-        <v>-0.08552287674629021</v>
+        <v>-0.05926013804558408</v>
       </c>
       <c r="F89">
-        <v>-0.0613236212474642</v>
+        <v>-0.02496172010547698</v>
       </c>
       <c r="G89">
-        <v>0.02435328578778493</v>
+        <v>0.02137386949579042</v>
       </c>
       <c r="H89">
-        <v>-0.02425469484361228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02509039917787033</v>
+      </c>
+      <c r="I89">
+        <v>-0.0185832556946322</v>
+      </c>
+      <c r="J89">
+        <v>0.0722275233713837</v>
+      </c>
+      <c r="K89">
+        <v>-0.03115896901659848</v>
+      </c>
+      <c r="L89">
+        <v>0.01666062835599994</v>
+      </c>
+      <c r="M89">
+        <v>0.029916857393303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1059187669563887</v>
+        <v>-0.1522128844165384</v>
       </c>
       <c r="C90">
-        <v>-0.2762400944704634</v>
+        <v>0.2715082171129103</v>
       </c>
       <c r="D90">
-        <v>-0.04401201355764515</v>
+        <v>0.007591008568320595</v>
       </c>
       <c r="E90">
-        <v>-0.05962452960331079</v>
+        <v>-0.006792034647455816</v>
       </c>
       <c r="F90">
-        <v>-0.03959539202297237</v>
+        <v>-0.03102353782531154</v>
       </c>
       <c r="G90">
-        <v>0.1014442753586031</v>
+        <v>-0.02174855786144868</v>
       </c>
       <c r="H90">
-        <v>-0.02769611023987789</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06565756447705948</v>
+      </c>
+      <c r="I90">
+        <v>-0.001164778460014326</v>
+      </c>
+      <c r="J90">
+        <v>0.02410898771937313</v>
+      </c>
+      <c r="K90">
+        <v>0.0446002351244706</v>
+      </c>
+      <c r="L90">
+        <v>0.02930335367918782</v>
+      </c>
+      <c r="M90">
+        <v>-0.03954628635966068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07973713414372087</v>
+        <v>-0.08186722734306645</v>
       </c>
       <c r="C91">
-        <v>0.01602689311659204</v>
+        <v>-0.05368701241608886</v>
       </c>
       <c r="D91">
-        <v>-0.01273363649084307</v>
+        <v>-0.0008647558936614349</v>
       </c>
       <c r="E91">
-        <v>0.01002925716679736</v>
+        <v>-0.009409517607630227</v>
       </c>
       <c r="F91">
-        <v>0.09714553799089057</v>
+        <v>0.01763729352952593</v>
       </c>
       <c r="G91">
-        <v>-0.05972498806096752</v>
+        <v>-0.06561789796103702</v>
       </c>
       <c r="H91">
-        <v>-0.02817867718477864</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07170862611253652</v>
+      </c>
+      <c r="I91">
+        <v>0.05146972429415534</v>
+      </c>
+      <c r="J91">
+        <v>-0.02359552794058251</v>
+      </c>
+      <c r="K91">
+        <v>0.003087182628671</v>
+      </c>
+      <c r="L91">
+        <v>0.008937305949273449</v>
+      </c>
+      <c r="M91">
+        <v>-0.007866353379575294</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.110674865268803</v>
+        <v>-0.1697566060479478</v>
       </c>
       <c r="C92">
-        <v>-0.3201531188421713</v>
+        <v>0.3145414460935541</v>
       </c>
       <c r="D92">
-        <v>-0.07518127011757469</v>
+        <v>-0.03192790936174996</v>
       </c>
       <c r="E92">
-        <v>-0.05178460912880077</v>
+        <v>-0.034574275116779</v>
       </c>
       <c r="F92">
-        <v>-0.007907772539825423</v>
+        <v>-0.04532598879146037</v>
       </c>
       <c r="G92">
-        <v>-0.09832168907089189</v>
+        <v>-0.02259246407482916</v>
       </c>
       <c r="H92">
-        <v>-0.03093058162782568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02893902719635091</v>
+      </c>
+      <c r="I92">
+        <v>0.006279765065731382</v>
+      </c>
+      <c r="J92">
+        <v>0.03984829083527403</v>
+      </c>
+      <c r="K92">
+        <v>-0.02986922685221508</v>
+      </c>
+      <c r="L92">
+        <v>0.0473224413018964</v>
+      </c>
+      <c r="M92">
+        <v>0.05730463619332496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1157182681473433</v>
+        <v>-0.1606081494162744</v>
       </c>
       <c r="C93">
-        <v>-0.2662209230763778</v>
+        <v>0.2920053150287137</v>
       </c>
       <c r="D93">
-        <v>-0.04906353916505724</v>
+        <v>0.03120851597260409</v>
       </c>
       <c r="E93">
-        <v>-0.02811698534360249</v>
+        <v>0.002381811287738362</v>
       </c>
       <c r="F93">
-        <v>-0.03027168777583845</v>
+        <v>-0.0177576204946642</v>
       </c>
       <c r="G93">
-        <v>0.01609410469011728</v>
+        <v>-0.001452186230963504</v>
       </c>
       <c r="H93">
-        <v>0.008075036085549445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04291459299375331</v>
+      </c>
+      <c r="I93">
+        <v>0.008962334896220911</v>
+      </c>
+      <c r="J93">
+        <v>-0.01626875931060591</v>
+      </c>
+      <c r="K93">
+        <v>-0.02812442865364377</v>
+      </c>
+      <c r="L93">
+        <v>0.001748886575882037</v>
+      </c>
+      <c r="M93">
+        <v>-0.01684722902366298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09770490602291415</v>
+        <v>-0.1142221031026587</v>
       </c>
       <c r="C94">
-        <v>0.05394465042641225</v>
+        <v>-0.06837713054784335</v>
       </c>
       <c r="D94">
-        <v>-0.004692959999744022</v>
+        <v>-0.01201104382784377</v>
       </c>
       <c r="E94">
-        <v>0.01795066890622483</v>
+        <v>-0.03607596665297647</v>
       </c>
       <c r="F94">
-        <v>0.1656432165956563</v>
+        <v>0.03795032463489956</v>
       </c>
       <c r="G94">
-        <v>-0.07592855099965706</v>
+        <v>-0.1017859612601548</v>
       </c>
       <c r="H94">
-        <v>-0.01373912833959964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.107780682308467</v>
+      </c>
+      <c r="I94">
+        <v>0.04982083207439254</v>
+      </c>
+      <c r="J94">
+        <v>-0.03479077283022945</v>
+      </c>
+      <c r="K94">
+        <v>0.01059472837056639</v>
+      </c>
+      <c r="L94">
+        <v>0.05040334985902078</v>
+      </c>
+      <c r="M94">
+        <v>0.01734450512914321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1177266501577062</v>
+        <v>-0.1157627862513658</v>
       </c>
       <c r="C95">
-        <v>0.08009505818646223</v>
+        <v>-0.06579812426542944</v>
       </c>
       <c r="D95">
-        <v>-0.06272122747931128</v>
+        <v>-0.01397942074610455</v>
       </c>
       <c r="E95">
-        <v>-0.0506702267258505</v>
+        <v>-0.07732655481790986</v>
       </c>
       <c r="F95">
-        <v>-0.05142307196979108</v>
+        <v>-0.07427525704688734</v>
       </c>
       <c r="G95">
-        <v>0.04074098756321985</v>
+        <v>0.1609506423460153</v>
       </c>
       <c r="H95">
-        <v>-0.09474275225756988</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1962314429926831</v>
+      </c>
+      <c r="I95">
+        <v>0.007232715791531509</v>
+      </c>
+      <c r="J95">
+        <v>-0.03101031121512673</v>
+      </c>
+      <c r="K95">
+        <v>-0.126265286294487</v>
+      </c>
+      <c r="L95">
+        <v>0.05618398149845499</v>
+      </c>
+      <c r="M95">
+        <v>0.5907469457026244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.002540955441705206</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002269821878625572</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.001184925555122404</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0009311620408079361</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0002728035475820505</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01121532746728699</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.009733061293032468</v>
+      </c>
+      <c r="I96">
+        <v>-0.006657556618505822</v>
+      </c>
+      <c r="J96">
+        <v>0.004333474933562939</v>
+      </c>
+      <c r="K96">
+        <v>0.009038967775160885</v>
+      </c>
+      <c r="L96">
+        <v>-0.00149232291678062</v>
+      </c>
+      <c r="M96">
+        <v>-0.01467424039058951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2287824173812263</v>
+        <v>-0.1670228049848091</v>
       </c>
       <c r="C97">
-        <v>-0.1113002438067275</v>
+        <v>-0.04913416707035601</v>
       </c>
       <c r="D97">
-        <v>0.9017324504255715</v>
+        <v>-0.1668735114583756</v>
       </c>
       <c r="E97">
-        <v>0.03960197515141604</v>
+        <v>0.9244937613710433</v>
       </c>
       <c r="F97">
-        <v>-0.110218506480295</v>
+        <v>0.01951103640759174</v>
       </c>
       <c r="G97">
-        <v>0.01520771583892366</v>
+        <v>0.1175511478089331</v>
       </c>
       <c r="H97">
-        <v>-0.008660963223607987</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.05735860625475377</v>
+      </c>
+      <c r="I97">
+        <v>0.07384307954786756</v>
+      </c>
+      <c r="J97">
+        <v>0.03930233582021813</v>
+      </c>
+      <c r="K97">
+        <v>0.01870178474511322</v>
+      </c>
+      <c r="L97">
+        <v>-0.02492850666103129</v>
+      </c>
+      <c r="M97">
+        <v>0.02080531767359682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2880706293466029</v>
+        <v>-0.2518357315545896</v>
       </c>
       <c r="C98">
-        <v>0.08675780773612632</v>
+        <v>-0.1081277378469972</v>
       </c>
       <c r="D98">
-        <v>-0.09249680778553328</v>
+        <v>-0.01828008799712499</v>
       </c>
       <c r="E98">
-        <v>0.1765700240612857</v>
+        <v>-0.020138610699246</v>
       </c>
       <c r="F98">
-        <v>-0.3046791195370631</v>
+        <v>0.3778554662434314</v>
       </c>
       <c r="G98">
-        <v>-0.2963979896445354</v>
+        <v>0.1871041764321495</v>
       </c>
       <c r="H98">
-        <v>-0.1653219453535315</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.03323864920385136</v>
+      </c>
+      <c r="I98">
+        <v>-0.2186327199280614</v>
+      </c>
+      <c r="J98">
+        <v>0.285031411449525</v>
+      </c>
+      <c r="K98">
+        <v>-0.4682977639124059</v>
+      </c>
+      <c r="L98">
+        <v>-0.2305851437807765</v>
+      </c>
+      <c r="M98">
+        <v>-0.03519683151746816</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.07008395753626223</v>
+        <v>-0.06604086721589318</v>
       </c>
       <c r="C99">
-        <v>0.04945130415352827</v>
+        <v>-0.04853827630424914</v>
       </c>
       <c r="D99">
-        <v>-0.03029554191866554</v>
+        <v>0.001641721122744275</v>
       </c>
       <c r="E99">
-        <v>0.004236970959378464</v>
+        <v>-0.05286058787379611</v>
       </c>
       <c r="F99">
-        <v>0.01849189306553531</v>
+        <v>0.01181109671705018</v>
       </c>
       <c r="G99">
-        <v>0.0289787160145541</v>
+        <v>-0.02053010713048787</v>
       </c>
       <c r="H99">
-        <v>-0.01824927123171194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02513740389560165</v>
+      </c>
+      <c r="I99">
+        <v>0.0108194508587255</v>
+      </c>
+      <c r="J99">
+        <v>0.02023255434629469</v>
+      </c>
+      <c r="K99">
+        <v>0.03133646889507174</v>
+      </c>
+      <c r="L99">
+        <v>-0.03474909237909581</v>
+      </c>
+      <c r="M99">
+        <v>0.05331467220946827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.003208561655412752</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.006701838280995243</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.002303689564663121</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03762184766286947</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.02930885610236882</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.02903276257191932</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.02593494531821158</v>
+      </c>
+      <c r="I100">
+        <v>-0.005105197706089169</v>
+      </c>
+      <c r="J100">
+        <v>0.01030643905038788</v>
+      </c>
+      <c r="K100">
+        <v>-0.05998741947467096</v>
+      </c>
+      <c r="L100">
+        <v>-0.0189811535537633</v>
+      </c>
+      <c r="M100">
+        <v>0.0305773350893306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05428788554661843</v>
+        <v>-0.03908327184618335</v>
       </c>
       <c r="C101">
-        <v>0.0161793785400403</v>
+        <v>-0.02656449791265304</v>
       </c>
       <c r="D101">
-        <v>-0.008665466389533798</v>
+        <v>0.009157472872263138</v>
       </c>
       <c r="E101">
-        <v>-0.03011602163213496</v>
+        <v>-0.01382907755501764</v>
       </c>
       <c r="F101">
-        <v>0.01734233478500396</v>
+        <v>-0.07095948358709522</v>
       </c>
       <c r="G101">
-        <v>-0.00960863364494084</v>
+        <v>-0.02393316972214153</v>
       </c>
       <c r="H101">
-        <v>0.03712341520658579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.007161650115858812</v>
+      </c>
+      <c r="I101">
+        <v>-0.009680407471848503</v>
+      </c>
+      <c r="J101">
+        <v>-0.01274114704920649</v>
+      </c>
+      <c r="K101">
+        <v>-0.0940957375738721</v>
+      </c>
+      <c r="L101">
+        <v>0.007716119825020309</v>
+      </c>
+      <c r="M101">
+        <v>0.009975309725608183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
